--- a/設計書類_レビュー前/画面遷移図 レビュー前.xlsx
+++ b/設計書類_レビュー前/画面遷移図 レビュー前.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -394,6 +394,20 @@
       <t>カイケイ</t>
     </rPh>
     <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>kakutei.oho</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>確定しました画面</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="6"/>
@@ -1026,6 +1040,50 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,30 +1132,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1125,26 +1159,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -18979,6 +18993,130 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>お会計を確定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直線矢印コネクタ 108"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6057900" y="7368540"/>
+          <a:ext cx="868680" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>51435</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>24766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>154305</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>83823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="四角形吹き出し 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="8158161" y="7203760"/>
+          <a:ext cx="1080137" cy="834390"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>会計が確定しましたと、表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ありがとうございましたと、表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19383,130 +19521,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="57" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="73" t="s">
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="73" t="s">
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="75"/>
-      <c r="AW1" s="75"/>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="75"/>
-      <c r="AZ1" s="75"/>
-      <c r="BA1" s="75"/>
-      <c r="BB1" s="75"/>
-      <c r="BC1" s="76"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="78"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="74" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="74" t="s">
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="78"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="79"/>
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="79"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="80"/>
     </row>
     <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -22417,17 +22555,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -22453,130 +22591,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="57" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="73" t="s">
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="73" t="s">
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="75"/>
-      <c r="AW1" s="75"/>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="75"/>
-      <c r="AZ1" s="75"/>
-      <c r="BA1" s="75"/>
-      <c r="BB1" s="75"/>
-      <c r="BC1" s="76"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="78"/>
     </row>
     <row r="2" spans="1:57" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="74" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="74" t="s">
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="78"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="79"/>
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="79"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="80"/>
     </row>
     <row r="3" spans="1:57" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -24145,17 +24283,17 @@
       <c r="AY30" s="2"/>
       <c r="AZ30" s="2"/>
       <c r="BA30" s="2"/>
-      <c r="BB30" s="81" t="s">
+      <c r="BB30" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="BC30" s="82"/>
-      <c r="BD30" s="82"/>
-      <c r="BE30" s="82"/>
-      <c r="BF30" s="82"/>
-      <c r="BG30" s="82"/>
-      <c r="BH30" s="82"/>
-      <c r="BI30" s="82"/>
-      <c r="BJ30" s="83"/>
+      <c r="BC30" s="102"/>
+      <c r="BD30" s="102"/>
+      <c r="BE30" s="102"/>
+      <c r="BF30" s="102"/>
+      <c r="BG30" s="102"/>
+      <c r="BH30" s="102"/>
+      <c r="BI30" s="102"/>
+      <c r="BJ30" s="103"/>
       <c r="BK30" s="3"/>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.15">
@@ -24212,15 +24350,15 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
-      <c r="BB31" s="84"/>
-      <c r="BC31" s="85"/>
-      <c r="BD31" s="85"/>
-      <c r="BE31" s="85"/>
-      <c r="BF31" s="85"/>
-      <c r="BG31" s="85"/>
-      <c r="BH31" s="85"/>
-      <c r="BI31" s="85"/>
-      <c r="BJ31" s="86"/>
+      <c r="BB31" s="104"/>
+      <c r="BC31" s="105"/>
+      <c r="BD31" s="105"/>
+      <c r="BE31" s="105"/>
+      <c r="BF31" s="105"/>
+      <c r="BG31" s="105"/>
+      <c r="BH31" s="105"/>
+      <c r="BI31" s="105"/>
+      <c r="BJ31" s="106"/>
       <c r="BK31" s="3"/>
     </row>
     <row r="32" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
@@ -24277,15 +24415,15 @@
       <c r="AY32" s="2"/>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
-      <c r="BB32" s="87"/>
-      <c r="BC32" s="88"/>
-      <c r="BD32" s="88"/>
-      <c r="BE32" s="88"/>
-      <c r="BF32" s="88"/>
-      <c r="BG32" s="88"/>
-      <c r="BH32" s="88"/>
-      <c r="BI32" s="88"/>
-      <c r="BJ32" s="89"/>
+      <c r="BB32" s="107"/>
+      <c r="BC32" s="108"/>
+      <c r="BD32" s="108"/>
+      <c r="BE32" s="108"/>
+      <c r="BF32" s="108"/>
+      <c r="BG32" s="108"/>
+      <c r="BH32" s="108"/>
+      <c r="BI32" s="108"/>
+      <c r="BJ32" s="109"/>
       <c r="BK32" s="3"/>
     </row>
     <row r="33" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
@@ -25567,130 +25705,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="57" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="73" t="s">
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="73" t="s">
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="75"/>
-      <c r="AW1" s="75"/>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="75"/>
-      <c r="AZ1" s="75"/>
-      <c r="BA1" s="75"/>
-      <c r="BB1" s="75"/>
-      <c r="BC1" s="76"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="78"/>
     </row>
     <row r="2" spans="1:57" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="74" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="74" t="s">
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="78"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="79"/>
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="79"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="80"/>
     </row>
     <row r="3" spans="1:57" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -27259,17 +27397,17 @@
       <c r="AY30" s="2"/>
       <c r="AZ30" s="2"/>
       <c r="BA30" s="2"/>
-      <c r="BB30" s="81" t="s">
+      <c r="BB30" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="BC30" s="82"/>
-      <c r="BD30" s="82"/>
-      <c r="BE30" s="82"/>
-      <c r="BF30" s="82"/>
-      <c r="BG30" s="82"/>
-      <c r="BH30" s="82"/>
-      <c r="BI30" s="82"/>
-      <c r="BJ30" s="83"/>
+      <c r="BC30" s="102"/>
+      <c r="BD30" s="102"/>
+      <c r="BE30" s="102"/>
+      <c r="BF30" s="102"/>
+      <c r="BG30" s="102"/>
+      <c r="BH30" s="102"/>
+      <c r="BI30" s="102"/>
+      <c r="BJ30" s="103"/>
       <c r="BK30" s="3"/>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.15">
@@ -27326,15 +27464,15 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
-      <c r="BB31" s="84"/>
-      <c r="BC31" s="85"/>
-      <c r="BD31" s="85"/>
-      <c r="BE31" s="85"/>
-      <c r="BF31" s="85"/>
-      <c r="BG31" s="85"/>
-      <c r="BH31" s="85"/>
-      <c r="BI31" s="85"/>
-      <c r="BJ31" s="86"/>
+      <c r="BB31" s="104"/>
+      <c r="BC31" s="105"/>
+      <c r="BD31" s="105"/>
+      <c r="BE31" s="105"/>
+      <c r="BF31" s="105"/>
+      <c r="BG31" s="105"/>
+      <c r="BH31" s="105"/>
+      <c r="BI31" s="105"/>
+      <c r="BJ31" s="106"/>
       <c r="BK31" s="3"/>
     </row>
     <row r="32" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
@@ -27391,15 +27529,15 @@
       <c r="AY32" s="2"/>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
-      <c r="BB32" s="87"/>
-      <c r="BC32" s="88"/>
-      <c r="BD32" s="88"/>
-      <c r="BE32" s="88"/>
-      <c r="BF32" s="88"/>
-      <c r="BG32" s="88"/>
-      <c r="BH32" s="88"/>
-      <c r="BI32" s="88"/>
-      <c r="BJ32" s="89"/>
+      <c r="BB32" s="107"/>
+      <c r="BC32" s="108"/>
+      <c r="BD32" s="108"/>
+      <c r="BE32" s="108"/>
+      <c r="BF32" s="108"/>
+      <c r="BG32" s="108"/>
+      <c r="BH32" s="108"/>
+      <c r="BI32" s="108"/>
+      <c r="BJ32" s="109"/>
       <c r="BK32" s="3"/>
     </row>
     <row r="33" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
@@ -27414,14 +27552,14 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="93" t="s">
+      <c r="L33" s="59"/>
+      <c r="M33" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="94"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="61"/>
       <c r="R33" s="3"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -27485,12 +27623,12 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="97"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="64"/>
       <c r="R34" s="3"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -27550,14 +27688,14 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="90"/>
+      <c r="L35" s="57"/>
       <c r="M35" s="33" t="s">
         <v>15</v>
       </c>
       <c r="N35" s="33"/>
       <c r="O35" s="33"/>
       <c r="P35" s="33"/>
-      <c r="Q35" s="91"/>
+      <c r="Q35" s="58"/>
       <c r="R35" s="3"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -27621,12 +27759,12 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="100"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="67"/>
       <c r="R36" s="3"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -29165,11 +29303,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AT1:BC1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AO2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="BB30:BJ32"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="O1:R2"/>
@@ -29177,6 +29310,11 @@
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:BC1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:BC2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -29192,8 +29330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC52" sqref="AC52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BA52" sqref="BA52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
@@ -29202,130 +29340,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="57" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="73" t="s">
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="73" t="s">
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="75"/>
-      <c r="AW1" s="75"/>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="75"/>
-      <c r="AZ1" s="75"/>
-      <c r="BA1" s="75"/>
-      <c r="BB1" s="75"/>
-      <c r="BC1" s="76"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="78"/>
     </row>
     <row r="2" spans="1:57" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="74" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="74" t="s">
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="78"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="79"/>
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="79"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="80"/>
     </row>
     <row r="3" spans="1:57" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -30894,17 +31032,17 @@
       <c r="AY30" s="2"/>
       <c r="AZ30" s="2"/>
       <c r="BA30" s="2"/>
-      <c r="BB30" s="81" t="s">
+      <c r="BB30" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="BC30" s="82"/>
-      <c r="BD30" s="82"/>
-      <c r="BE30" s="82"/>
-      <c r="BF30" s="82"/>
-      <c r="BG30" s="82"/>
-      <c r="BH30" s="82"/>
-      <c r="BI30" s="82"/>
-      <c r="BJ30" s="83"/>
+      <c r="BC30" s="102"/>
+      <c r="BD30" s="102"/>
+      <c r="BE30" s="102"/>
+      <c r="BF30" s="102"/>
+      <c r="BG30" s="102"/>
+      <c r="BH30" s="102"/>
+      <c r="BI30" s="102"/>
+      <c r="BJ30" s="103"/>
       <c r="BK30" s="3"/>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.15">
@@ -30961,15 +31099,15 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
-      <c r="BB31" s="84"/>
-      <c r="BC31" s="85"/>
-      <c r="BD31" s="85"/>
-      <c r="BE31" s="85"/>
-      <c r="BF31" s="85"/>
-      <c r="BG31" s="85"/>
-      <c r="BH31" s="85"/>
-      <c r="BI31" s="85"/>
-      <c r="BJ31" s="86"/>
+      <c r="BB31" s="104"/>
+      <c r="BC31" s="105"/>
+      <c r="BD31" s="105"/>
+      <c r="BE31" s="105"/>
+      <c r="BF31" s="105"/>
+      <c r="BG31" s="105"/>
+      <c r="BH31" s="105"/>
+      <c r="BI31" s="105"/>
+      <c r="BJ31" s="106"/>
       <c r="BK31" s="3"/>
     </row>
     <row r="32" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
@@ -31026,15 +31164,15 @@
       <c r="AY32" s="2"/>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
-      <c r="BB32" s="87"/>
-      <c r="BC32" s="88"/>
-      <c r="BD32" s="88"/>
-      <c r="BE32" s="88"/>
-      <c r="BF32" s="88"/>
-      <c r="BG32" s="88"/>
-      <c r="BH32" s="88"/>
-      <c r="BI32" s="88"/>
-      <c r="BJ32" s="89"/>
+      <c r="BB32" s="107"/>
+      <c r="BC32" s="108"/>
+      <c r="BD32" s="108"/>
+      <c r="BE32" s="108"/>
+      <c r="BF32" s="108"/>
+      <c r="BG32" s="108"/>
+      <c r="BH32" s="108"/>
+      <c r="BI32" s="108"/>
+      <c r="BJ32" s="109"/>
       <c r="BK32" s="3"/>
     </row>
     <row r="33" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
@@ -31049,14 +31187,14 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="93" t="s">
+      <c r="L33" s="59"/>
+      <c r="M33" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="94"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="61"/>
       <c r="R33" s="3"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -31120,12 +31258,12 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="97"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="64"/>
       <c r="R34" s="3"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -31185,14 +31323,14 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="90"/>
+      <c r="L35" s="57"/>
       <c r="M35" s="33" t="s">
         <v>15</v>
       </c>
       <c r="N35" s="33"/>
       <c r="O35" s="33"/>
       <c r="P35" s="33"/>
-      <c r="Q35" s="91"/>
+      <c r="Q35" s="58"/>
       <c r="R35" s="3"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -31256,12 +31394,12 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="100"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="67"/>
       <c r="R36" s="3"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -32007,6 +32145,14 @@
       <c r="AE50" s="49"/>
       <c r="AF50" s="49"/>
       <c r="AG50" s="50"/>
+      <c r="AM50" s="48"/>
+      <c r="AN50" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO50" s="49"/>
+      <c r="AP50" s="49"/>
+      <c r="AQ50" s="49"/>
+      <c r="AR50" s="50"/>
       <c r="AU50" s="2"/>
       <c r="AV50" s="2"/>
       <c r="AW50" s="2"/>
@@ -32022,12 +32168,18 @@
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="AB51" s="101"/>
-      <c r="AC51" s="102"/>
-      <c r="AD51" s="102"/>
-      <c r="AE51" s="102"/>
-      <c r="AF51" s="102"/>
-      <c r="AG51" s="103"/>
+      <c r="AB51" s="68"/>
+      <c r="AC51" s="69"/>
+      <c r="AD51" s="69"/>
+      <c r="AE51" s="69"/>
+      <c r="AF51" s="69"/>
+      <c r="AG51" s="70"/>
+      <c r="AM51" s="68"/>
+      <c r="AN51" s="69"/>
+      <c r="AO51" s="69"/>
+      <c r="AP51" s="69"/>
+      <c r="AQ51" s="69"/>
+      <c r="AR51" s="70"/>
       <c r="AU51" s="2"/>
       <c r="AV51" s="2"/>
       <c r="AW51" s="2"/>
@@ -32043,14 +32195,22 @@
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="AB52" s="104"/>
-      <c r="AC52" s="105" t="s">
+      <c r="AB52" s="71"/>
+      <c r="AC52" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="AD52" s="105"/>
-      <c r="AE52" s="105"/>
-      <c r="AF52" s="105"/>
-      <c r="AG52" s="106"/>
+      <c r="AD52" s="72"/>
+      <c r="AE52" s="72"/>
+      <c r="AF52" s="72"/>
+      <c r="AG52" s="73"/>
+      <c r="AM52" s="71"/>
+      <c r="AN52" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO52" s="72"/>
+      <c r="AP52" s="72"/>
+      <c r="AQ52" s="72"/>
+      <c r="AR52" s="73"/>
       <c r="AU52" s="2"/>
       <c r="AV52" s="2"/>
       <c r="AW52" s="2"/>
@@ -32066,12 +32226,18 @@
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="AB53" s="107"/>
-      <c r="AC53" s="108"/>
-      <c r="AD53" s="108"/>
-      <c r="AE53" s="108"/>
-      <c r="AF53" s="108"/>
-      <c r="AG53" s="109"/>
+      <c r="AB53" s="74"/>
+      <c r="AC53" s="75"/>
+      <c r="AD53" s="75"/>
+      <c r="AE53" s="75"/>
+      <c r="AF53" s="75"/>
+      <c r="AG53" s="76"/>
+      <c r="AM53" s="74"/>
+      <c r="AN53" s="75"/>
+      <c r="AO53" s="75"/>
+      <c r="AP53" s="75"/>
+      <c r="AQ53" s="75"/>
+      <c r="AR53" s="76"/>
       <c r="AU53" s="2"/>
       <c r="AV53" s="2"/>
       <c r="AW53" s="2"/>
@@ -32093,6 +32259,12 @@
       <c r="AE54" s="13"/>
       <c r="AF54" s="13"/>
       <c r="AG54" s="14"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="13"/>
+      <c r="AO54" s="13"/>
+      <c r="AP54" s="13"/>
+      <c r="AQ54" s="13"/>
+      <c r="AR54" s="14"/>
       <c r="AU54" s="2"/>
       <c r="AV54" s="2"/>
       <c r="AW54" s="2"/>
@@ -32114,6 +32286,12 @@
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
       <c r="AG55" s="16"/>
+      <c r="AM55" s="15"/>
+      <c r="AN55" s="2"/>
+      <c r="AO55" s="2"/>
+      <c r="AP55" s="2"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="16"/>
       <c r="AU55" s="2"/>
       <c r="AV55" s="2"/>
       <c r="AW55" s="2"/>
@@ -32135,6 +32313,12 @@
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
       <c r="AG56" s="16"/>
+      <c r="AM56" s="38"/>
+      <c r="AN56" s="2"/>
+      <c r="AO56" s="2"/>
+      <c r="AP56" s="2"/>
+      <c r="AQ56" s="2"/>
+      <c r="AR56" s="16"/>
       <c r="AU56" s="2"/>
       <c r="AV56" s="2"/>
       <c r="AW56" s="2"/>
@@ -32153,6 +32337,12 @@
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
       <c r="AG57" s="16"/>
+      <c r="AM57" s="15"/>
+      <c r="AN57" s="2"/>
+      <c r="AO57" s="2"/>
+      <c r="AP57" s="2"/>
+      <c r="AQ57" s="2"/>
+      <c r="AR57" s="16"/>
       <c r="AU57" s="2"/>
       <c r="AV57" s="2"/>
       <c r="AW57" s="2"/>
@@ -32171,6 +32361,12 @@
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
       <c r="AG58" s="16"/>
+      <c r="AM58" s="15"/>
+      <c r="AN58" s="2"/>
+      <c r="AO58" s="2"/>
+      <c r="AP58" s="2"/>
+      <c r="AQ58" s="2"/>
+      <c r="AR58" s="16"/>
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.15">
       <c r="AB59" s="15"/>
@@ -32179,6 +32375,12 @@
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
       <c r="AG59" s="16"/>
+      <c r="AM59" s="15"/>
+      <c r="AN59" s="2"/>
+      <c r="AO59" s="2"/>
+      <c r="AP59" s="2"/>
+      <c r="AQ59" s="2"/>
+      <c r="AR59" s="16"/>
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.15">
       <c r="AB60" s="15"/>
@@ -32187,6 +32389,12 @@
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
       <c r="AG60" s="16"/>
+      <c r="AM60" s="15"/>
+      <c r="AN60" s="2"/>
+      <c r="AO60" s="2"/>
+      <c r="AP60" s="2"/>
+      <c r="AQ60" s="2"/>
+      <c r="AR60" s="16"/>
     </row>
     <row r="61" spans="1:56" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="AB61" s="17"/>
@@ -32195,15 +32403,18 @@
       <c r="AE61" s="18"/>
       <c r="AF61" s="18"/>
       <c r="AG61" s="19"/>
+      <c r="AM61" s="17"/>
+      <c r="AN61" s="18"/>
+      <c r="AO61" s="18"/>
+      <c r="AP61" s="18"/>
+      <c r="AQ61" s="18"/>
+      <c r="AR61" s="19"/>
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.15">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
-      <c r="AP62" s="2"/>
-      <c r="AQ62" s="2"/>
-      <c r="AR62" s="2"/>
       <c r="AS62" s="2"/>
       <c r="AT62" s="2"/>
     </row>
@@ -32211,12 +32422,6 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="AL63" s="2"/>
-      <c r="AM63" s="2"/>
-      <c r="AN63" s="2"/>
-      <c r="AO63" s="2"/>
-      <c r="AP63" s="2"/>
-      <c r="AQ63" s="2"/>
-      <c r="AR63" s="2"/>
       <c r="AS63" s="2"/>
       <c r="AT63" s="2"/>
     </row>
@@ -32243,24 +32448,18 @@
       <c r="AL64" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="AM64" s="49"/>
-      <c r="AN64" s="49"/>
-      <c r="AO64" s="49"/>
-      <c r="AP64" s="50"/>
-      <c r="AQ64" s="2"/>
-      <c r="AR64" s="2"/>
       <c r="AS64" s="2"/>
       <c r="AT64" s="2"/>
     </row>
     <row r="65" spans="4:46" x14ac:dyDescent="0.15">
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="102"/>
-      <c r="I65" s="102"/>
-      <c r="J65" s="102"/>
-      <c r="K65" s="103"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="69"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="70"/>
       <c r="U65" s="20"/>
       <c r="V65" s="21"/>
       <c r="W65" s="21"/>
@@ -32271,24 +32470,20 @@
       <c r="AE65" s="2"/>
       <c r="AK65" s="20"/>
       <c r="AL65" s="21"/>
-      <c r="AM65" s="21"/>
-      <c r="AN65" s="21"/>
-      <c r="AO65" s="21"/>
-      <c r="AP65" s="22"/>
       <c r="AS65" s="2"/>
       <c r="AT65" s="2"/>
     </row>
     <row r="66" spans="4:46" x14ac:dyDescent="0.15">
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="104"/>
-      <c r="G66" s="105" t="s">
+      <c r="F66" s="71"/>
+      <c r="G66" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="H66" s="105"/>
-      <c r="I66" s="105"/>
-      <c r="J66" s="105"/>
-      <c r="K66" s="106"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="73"/>
       <c r="U66" s="23"/>
       <c r="V66" s="24" t="s">
         <v>36</v>
@@ -32303,22 +32498,18 @@
       <c r="AL66" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="24"/>
-      <c r="AN66" s="24"/>
-      <c r="AO66" s="24"/>
-      <c r="AP66" s="25"/>
       <c r="AS66" s="2"/>
       <c r="AT66" s="2"/>
     </row>
     <row r="67" spans="4:46" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="107"/>
-      <c r="G67" s="108"/>
-      <c r="H67" s="108"/>
-      <c r="I67" s="108"/>
-      <c r="J67" s="108"/>
-      <c r="K67" s="109"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="76"/>
       <c r="U67" s="26"/>
       <c r="V67" s="27"/>
       <c r="W67" s="27"/>
@@ -32329,10 +32520,6 @@
       <c r="AE67" s="2"/>
       <c r="AK67" s="26"/>
       <c r="AL67" s="27"/>
-      <c r="AM67" s="27"/>
-      <c r="AN67" s="27"/>
-      <c r="AO67" s="27"/>
-      <c r="AP67" s="28"/>
       <c r="AS67" s="2"/>
       <c r="AT67" s="2"/>
     </row>
@@ -32355,10 +32542,6 @@
       <c r="AE68" s="2"/>
       <c r="AK68" s="15"/>
       <c r="AL68" s="2"/>
-      <c r="AM68" s="2"/>
-      <c r="AN68" s="2"/>
-      <c r="AO68" s="2"/>
-      <c r="AP68" s="16"/>
       <c r="AS68" s="2"/>
       <c r="AT68" s="2"/>
     </row>
@@ -32805,30 +32988,30 @@
       <c r="K99" s="50"/>
     </row>
     <row r="100" spans="6:35" x14ac:dyDescent="0.15">
-      <c r="F100" s="101"/>
-      <c r="G100" s="102"/>
-      <c r="H100" s="102"/>
-      <c r="I100" s="102"/>
-      <c r="J100" s="102"/>
-      <c r="K100" s="103"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="69"/>
+      <c r="I100" s="69"/>
+      <c r="J100" s="69"/>
+      <c r="K100" s="70"/>
     </row>
     <row r="101" spans="6:35" x14ac:dyDescent="0.15">
-      <c r="F101" s="104"/>
-      <c r="G101" s="105" t="s">
+      <c r="F101" s="71"/>
+      <c r="G101" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="H101" s="105"/>
-      <c r="I101" s="105"/>
-      <c r="J101" s="105"/>
-      <c r="K101" s="106"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="72"/>
+      <c r="K101" s="73"/>
     </row>
     <row r="102" spans="6:35" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F102" s="107"/>
-      <c r="G102" s="108"/>
-      <c r="H102" s="108"/>
-      <c r="I102" s="108"/>
-      <c r="J102" s="108"/>
-      <c r="K102" s="109"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="75"/>
+      <c r="H102" s="75"/>
+      <c r="I102" s="75"/>
+      <c r="J102" s="75"/>
+      <c r="K102" s="76"/>
     </row>
     <row r="103" spans="6:35" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F103" s="15"/>
@@ -32982,11 +33165,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AT1:BC1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AO2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="BB30:BJ32"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="O1:R2"/>
@@ -32994,6 +33172,11 @@
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:BC1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:BC2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/設計書類_レビュー前/画面遷移図 レビュー前.xlsx
+++ b/設計書類_レビュー前/画面遷移図 レビュー前.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6636" yWindow="780" windowWidth="18876" windowHeight="15588" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="6636" yWindow="780" windowWidth="18876" windowHeight="15588" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="18" r:id="rId1"/>
     <sheet name="Part1" sheetId="20" r:id="rId2"/>
-    <sheet name="Part1 (2)" sheetId="24" r:id="rId3"/>
-    <sheet name="Part1 (3)" sheetId="25" r:id="rId4"/>
+    <sheet name="Part2" sheetId="24" r:id="rId3"/>
+    <sheet name="Part3" sheetId="25" r:id="rId4"/>
   </sheets>
   <calcPr calcId="92512"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -412,6 +412,24 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>メニュー画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>rohuin.php</t>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
@@ -420,7 +438,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -475,8 +493,23 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +549,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,11 +1013,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1060,6 +1100,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1159,8 +1202,37 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="1"/>
   </cellStyles>
@@ -3173,14 +3245,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>113030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3189,8 +3261,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="749300" y="1441450"/>
-          <a:ext cx="717550" cy="177800"/>
+          <a:off x="3670300" y="1944370"/>
+          <a:ext cx="713740" cy="187960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3237,15 +3309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>172720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3254,8 +3326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1289050" y="1720850"/>
-          <a:ext cx="717550" cy="177800"/>
+          <a:off x="3665220" y="2247900"/>
+          <a:ext cx="713740" cy="179070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3765,16 +3837,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>90170</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>90170</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3783,7 +3855,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8656320" y="600710"/>
+          <a:off x="8816340" y="699770"/>
           <a:ext cx="499110" cy="121920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4019,15 +4091,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:colOff>115570</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>52070</xdr:rowOff>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4036,7 +4108,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="16200000">
-          <a:off x="2268220" y="975360"/>
+          <a:off x="2237740" y="830580"/>
           <a:ext cx="1046480" cy="901700"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -4292,16 +4364,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>75252</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>22859</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>11433</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>45725</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76203</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>41917</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4309,9 +4381,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="1344457" y="2921794"/>
-          <a:ext cx="541024" cy="1250633"/>
+        <a:xfrm>
+          <a:off x="3851913" y="3966212"/>
+          <a:ext cx="396244" cy="967739"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
@@ -5263,64 +5335,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="四角形吹き出し 39"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="609600" y="495300"/>
-          <a:ext cx="670560" cy="632460"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>管理者のみ、お客様には見せない。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -5376,15 +5390,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5392,9 +5406,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3931920" y="518160"/>
-          <a:ext cx="5349240" cy="15240"/>
+        <a:xfrm flipH="1">
+          <a:off x="3992880" y="609600"/>
+          <a:ext cx="5318760" cy="22860"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5429,16 +5443,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5446,9 +5460,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="3962400" y="541020"/>
-          <a:ext cx="7620" cy="701040"/>
+        <a:xfrm>
+          <a:off x="4023360" y="601980"/>
+          <a:ext cx="0" cy="662940"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5483,16 +5497,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5501,7 +5515,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="2369820" y="3421380"/>
+          <a:off x="3246120" y="3375660"/>
           <a:ext cx="426720" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5537,16 +5551,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5555,7 +5569,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8595360" y="876300"/>
+          <a:off x="8823960" y="1013460"/>
           <a:ext cx="556260" cy="167640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6444,6 +6458,490 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
             <a:t>戻るボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="四角形吹き出し 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="6259830" y="5132070"/>
+          <a:ext cx="1046480" cy="901700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6998"/>
+            <a:gd name="adj2" fmla="val 70106"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線矢印コネクタ 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="1219200" y="2758440"/>
+          <a:ext cx="15240" cy="1196340"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1501140" y="2766060"/>
+          <a:ext cx="7620" cy="1226820"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="571500" y="2956560"/>
+          <a:ext cx="792480" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>注文へ戻るボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="四角形吹き出し 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="213360" y="4061460"/>
+          <a:ext cx="670560" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>始動画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="891540" y="3329940"/>
+          <a:ext cx="449580" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="960120" y="5791200"/>
+          <a:ext cx="510540" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>注文へ戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1470660" y="3116580"/>
+          <a:ext cx="792480" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>管理者ボタン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14738,15 +15236,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14755,7 +15253,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="2697480" y="3291840"/>
+          <a:off x="2628900" y="3459480"/>
           <a:ext cx="426720" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -15958,16 +16456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15976,7 +16474,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="731520" y="2880360"/>
+          <a:off x="1417320" y="2834640"/>
           <a:ext cx="731520" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16156,15 +16654,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16173,7 +16671,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="5067300" y="7239000"/>
+          <a:off x="5036820" y="8884920"/>
           <a:ext cx="1363980" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -19117,6 +19615,374 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>ありがとうございましたと、表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直線矢印コネクタ 107"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="1264920" y="2773680"/>
+          <a:ext cx="22860" cy="5661660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="891540" y="8100060"/>
+          <a:ext cx="499110" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>戻るボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="正方形/長方形 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1264920" y="2773680"/>
+          <a:ext cx="499110" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>戻るボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="正方形/長方形 115"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="891540" y="12557760"/>
+          <a:ext cx="499110" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>戻るボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直線矢印コネクタ 116"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1280160" y="9921240"/>
+          <a:ext cx="15240" cy="2842260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1402080" y="10294620"/>
+          <a:ext cx="499110" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>売上ボタン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19521,130 +20387,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="85" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="83" t="s">
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="83" t="s">
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="78"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="81"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="84" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="84" t="s">
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
-      <c r="AW2" s="79"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="79"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="80"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82"/>
+      <c r="BC2" s="83"/>
     </row>
     <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -22579,10 +23445,3696 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK78"/>
+  <dimension ref="A1:BU78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="2.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:73" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="81"/>
+    </row>
+    <row r="2" spans="1:73" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82"/>
+      <c r="BC2" s="83"/>
+    </row>
+    <row r="3" spans="1:73" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="10"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="10"/>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="10"/>
+      <c r="BS4" s="10"/>
+      <c r="BT4" s="10"/>
+      <c r="BU4" s="11"/>
+    </row>
+    <row r="5" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="10"/>
+      <c r="BK5" s="10"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="10"/>
+      <c r="BN5" s="10"/>
+      <c r="BO5" s="10"/>
+      <c r="BP5" s="10"/>
+      <c r="BQ5" s="10"/>
+      <c r="BR5" s="10"/>
+      <c r="BS5" s="10"/>
+      <c r="BT5" s="10"/>
+      <c r="BU5" s="11"/>
+    </row>
+    <row r="6" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="2"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BU6" s="3"/>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="2"/>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="2"/>
+      <c r="BQ7" s="2"/>
+      <c r="BR7" s="2"/>
+      <c r="BS7" s="2"/>
+      <c r="BT7" s="2"/>
+      <c r="BU7" s="3"/>
+    </row>
+    <row r="8" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
+      <c r="BL8" s="2"/>
+      <c r="BM8" s="2"/>
+      <c r="BN8" s="2"/>
+      <c r="BO8" s="2"/>
+      <c r="BP8" s="2"/>
+      <c r="BQ8" s="2"/>
+      <c r="BR8" s="2"/>
+      <c r="BS8" s="2"/>
+      <c r="BT8" s="2"/>
+      <c r="BU8" s="3"/>
+    </row>
+    <row r="9" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="2"/>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="2"/>
+      <c r="BU9" s="3"/>
+    </row>
+    <row r="10" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="40"/>
+      <c r="AM10" s="40"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="2"/>
+      <c r="BQ10" s="2"/>
+      <c r="BR10" s="2"/>
+      <c r="BS10" s="2"/>
+      <c r="BT10" s="2"/>
+      <c r="BU10" s="3"/>
+    </row>
+    <row r="11" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="43"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="48"/>
+      <c r="AZ11" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA11" s="49"/>
+      <c r="BB11" s="49"/>
+      <c r="BC11" s="49"/>
+      <c r="BD11" s="50"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="2"/>
+      <c r="BM11" s="2"/>
+      <c r="BN11" s="2"/>
+      <c r="BO11" s="2"/>
+      <c r="BP11" s="2"/>
+      <c r="BQ11" s="2"/>
+      <c r="BR11" s="2"/>
+      <c r="BS11" s="2"/>
+      <c r="BT11" s="2"/>
+      <c r="BU11" s="3"/>
+    </row>
+    <row r="12" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="47"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="30"/>
+      <c r="BA12" s="30"/>
+      <c r="BB12" s="30"/>
+      <c r="BC12" s="30"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="2"/>
+      <c r="BR12" s="2"/>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2"/>
+      <c r="BU12" s="3"/>
+    </row>
+    <row r="13" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="33"/>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="33"/>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA13" s="33"/>
+      <c r="BB13" s="33"/>
+      <c r="BC13" s="33"/>
+      <c r="BD13" s="34"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="2"/>
+      <c r="BR13" s="2"/>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="2"/>
+      <c r="BU13" s="3"/>
+    </row>
+    <row r="14" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="33"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="33"/>
+      <c r="BA14" s="33"/>
+      <c r="BB14" s="33"/>
+      <c r="BC14" s="33"/>
+      <c r="BD14" s="34"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="2"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="2"/>
+      <c r="BQ14" s="2"/>
+      <c r="BR14" s="2"/>
+      <c r="BS14" s="2"/>
+      <c r="BT14" s="2"/>
+      <c r="BU14" s="3"/>
+    </row>
+    <row r="15" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="37"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="13"/>
+      <c r="BA15" s="13"/>
+      <c r="BB15" s="13"/>
+      <c r="BC15" s="13"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+      <c r="BN15" s="2"/>
+      <c r="BO15" s="2"/>
+      <c r="BP15" s="2"/>
+      <c r="BQ15" s="2"/>
+      <c r="BR15" s="2"/>
+      <c r="BS15" s="2"/>
+      <c r="BT15" s="2"/>
+      <c r="BU15" s="3"/>
+    </row>
+    <row r="16" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="16"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
+      <c r="BO16" s="2"/>
+      <c r="BP16" s="2"/>
+      <c r="BQ16" s="2"/>
+      <c r="BR16" s="2"/>
+      <c r="BS16" s="2"/>
+      <c r="BT16" s="2"/>
+      <c r="BU16" s="3"/>
+    </row>
+    <row r="17" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="16"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="2"/>
+      <c r="BR17" s="2"/>
+      <c r="BS17" s="2"/>
+      <c r="BT17" s="2"/>
+      <c r="BU17" s="3"/>
+    </row>
+    <row r="18" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="2"/>
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="2"/>
+      <c r="BU18" s="3"/>
+    </row>
+    <row r="19" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="16"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="16"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="2"/>
+      <c r="BU19" s="3"/>
+    </row>
+    <row r="20" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="16"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="2"/>
+      <c r="BR20" s="2"/>
+      <c r="BS20" s="2"/>
+      <c r="BT20" s="2"/>
+      <c r="BU20" s="3"/>
+    </row>
+    <row r="21" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="16"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="16"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="2"/>
+      <c r="BR21" s="2"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="2"/>
+      <c r="BU21" s="3"/>
+    </row>
+    <row r="22" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="18"/>
+      <c r="BA22" s="18"/>
+      <c r="BB22" s="18"/>
+      <c r="BC22" s="18"/>
+      <c r="BD22" s="19"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="2"/>
+      <c r="BM22" s="2"/>
+      <c r="BN22" s="2"/>
+      <c r="BO22" s="2"/>
+      <c r="BP22" s="2"/>
+      <c r="BQ22" s="2"/>
+      <c r="BR22" s="2"/>
+      <c r="BS22" s="2"/>
+      <c r="BT22" s="2"/>
+      <c r="BU22" s="3"/>
+    </row>
+    <row r="23" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
+      <c r="BU23" s="3"/>
+    </row>
+    <row r="24" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2"/>
+      <c r="BN24" s="2"/>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="2"/>
+      <c r="BR24" s="2"/>
+      <c r="BS24" s="2"/>
+      <c r="BT24" s="2"/>
+      <c r="BU24" s="3"/>
+    </row>
+    <row r="25" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
+      <c r="BU25" s="3"/>
+    </row>
+    <row r="26" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
+      <c r="BQ26" s="2"/>
+      <c r="BR26" s="2"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
+      <c r="BU26" s="3"/>
+    </row>
+    <row r="27" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="2"/>
+      <c r="BQ27" s="2"/>
+      <c r="BR27" s="2"/>
+      <c r="BS27" s="2"/>
+      <c r="BT27" s="2"/>
+      <c r="BU27" s="3"/>
+    </row>
+    <row r="28" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="2"/>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
+      <c r="BU28" s="3"/>
+    </row>
+    <row r="29" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="10"/>
+      <c r="AT29" s="10"/>
+      <c r="AU29" s="10"/>
+      <c r="AV29" s="10"/>
+      <c r="AW29" s="10"/>
+      <c r="AX29" s="10"/>
+      <c r="AY29" s="10"/>
+      <c r="AZ29" s="10"/>
+      <c r="BA29" s="10"/>
+      <c r="BB29" s="10"/>
+      <c r="BC29" s="10"/>
+      <c r="BD29" s="10"/>
+      <c r="BE29" s="10"/>
+      <c r="BF29" s="10"/>
+      <c r="BG29" s="10"/>
+      <c r="BH29" s="10"/>
+      <c r="BI29" s="10"/>
+      <c r="BJ29" s="10"/>
+      <c r="BK29" s="11"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="2"/>
+      <c r="BS29" s="2"/>
+      <c r="BT29" s="2"/>
+      <c r="BU29" s="3"/>
+    </row>
+    <row r="30" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC30" s="105"/>
+      <c r="BD30" s="105"/>
+      <c r="BE30" s="105"/>
+      <c r="BF30" s="105"/>
+      <c r="BG30" s="105"/>
+      <c r="BH30" s="105"/>
+      <c r="BI30" s="105"/>
+      <c r="BJ30" s="106"/>
+      <c r="BK30" s="3"/>
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+      <c r="BQ30" s="2"/>
+      <c r="BR30" s="2"/>
+      <c r="BS30" s="2"/>
+      <c r="BT30" s="2"/>
+      <c r="BU30" s="3"/>
+    </row>
+    <row r="31" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2"/>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="107"/>
+      <c r="BC31" s="108"/>
+      <c r="BD31" s="108"/>
+      <c r="BE31" s="108"/>
+      <c r="BF31" s="108"/>
+      <c r="BG31" s="108"/>
+      <c r="BH31" s="108"/>
+      <c r="BI31" s="108"/>
+      <c r="BJ31" s="109"/>
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="2"/>
+      <c r="BM31" s="2"/>
+      <c r="BN31" s="2"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="2"/>
+      <c r="BQ31" s="2"/>
+      <c r="BR31" s="2"/>
+      <c r="BS31" s="2"/>
+      <c r="BT31" s="2"/>
+      <c r="BU31" s="3"/>
+    </row>
+    <row r="32" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="2"/>
+      <c r="BA32" s="2"/>
+      <c r="BB32" s="110"/>
+      <c r="BC32" s="111"/>
+      <c r="BD32" s="111"/>
+      <c r="BE32" s="111"/>
+      <c r="BF32" s="111"/>
+      <c r="BG32" s="111"/>
+      <c r="BH32" s="111"/>
+      <c r="BI32" s="111"/>
+      <c r="BJ32" s="112"/>
+      <c r="BK32" s="3"/>
+      <c r="BL32" s="2"/>
+      <c r="BM32" s="2"/>
+      <c r="BN32" s="2"/>
+      <c r="BO32" s="2"/>
+      <c r="BP32" s="2"/>
+      <c r="BQ32" s="2"/>
+      <c r="BR32" s="2"/>
+      <c r="BS32" s="2"/>
+      <c r="BT32" s="2"/>
+      <c r="BU32" s="3"/>
+    </row>
+    <row r="33" spans="1:73" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU33" s="55"/>
+      <c r="AV33" s="55"/>
+      <c r="AW33" s="55"/>
+      <c r="AX33" s="55"/>
+      <c r="AY33" s="56"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="3"/>
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
+      <c r="BQ33" s="2"/>
+      <c r="BR33" s="2"/>
+      <c r="BS33" s="2"/>
+      <c r="BT33" s="2"/>
+      <c r="BU33" s="3"/>
+    </row>
+    <row r="34" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="31"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="32"/>
+      <c r="AU34" s="33"/>
+      <c r="AV34" s="33"/>
+      <c r="AW34" s="33"/>
+      <c r="AX34" s="33"/>
+      <c r="AY34" s="34"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="3"/>
+      <c r="BL34" s="2"/>
+      <c r="BM34" s="2"/>
+      <c r="BN34" s="2"/>
+      <c r="BO34" s="2"/>
+      <c r="BP34" s="2"/>
+      <c r="BQ34" s="2"/>
+      <c r="BR34" s="2"/>
+      <c r="BS34" s="2"/>
+      <c r="BT34" s="2"/>
+      <c r="BU34" s="3"/>
+    </row>
+    <row r="35" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="34"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="34"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="32"/>
+      <c r="AU35" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV35" s="33"/>
+      <c r="AW35" s="33"/>
+      <c r="AX35" s="33"/>
+      <c r="AY35" s="34"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="3"/>
+      <c r="BL35" s="2"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="2"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="2"/>
+      <c r="BQ35" s="2"/>
+      <c r="BR35" s="2"/>
+      <c r="BS35" s="2"/>
+      <c r="BT35" s="2"/>
+      <c r="BU35" s="3"/>
+    </row>
+    <row r="36" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="35"/>
+      <c r="AU36" s="36"/>
+      <c r="AV36" s="36"/>
+      <c r="AW36" s="36"/>
+      <c r="AX36" s="36"/>
+      <c r="AY36" s="37"/>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="3"/>
+      <c r="BL36" s="2"/>
+      <c r="BM36" s="2"/>
+      <c r="BN36" s="2"/>
+      <c r="BO36" s="2"/>
+      <c r="BP36" s="2"/>
+      <c r="BQ36" s="2"/>
+      <c r="BR36" s="2"/>
+      <c r="BS36" s="2"/>
+      <c r="BT36" s="2"/>
+      <c r="BU36" s="3"/>
+    </row>
+    <row r="37" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="16"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="15"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="16"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="3"/>
+      <c r="BL37" s="2"/>
+      <c r="BM37" s="2"/>
+      <c r="BN37" s="2"/>
+      <c r="BO37" s="2"/>
+      <c r="BP37" s="2"/>
+      <c r="BQ37" s="2"/>
+      <c r="BR37" s="2"/>
+      <c r="BS37" s="2"/>
+      <c r="BT37" s="2"/>
+      <c r="BU37" s="3"/>
+    </row>
+    <row r="38" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="16"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="15"/>
+      <c r="AU38" s="2"/>
+      <c r="AV38" s="2"/>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="16"/>
+      <c r="AZ38" s="2"/>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="2"/>
+      <c r="BD38" s="2"/>
+      <c r="BE38" s="2"/>
+      <c r="BF38" s="2"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="2"/>
+      <c r="BJ38" s="2"/>
+      <c r="BK38" s="3"/>
+      <c r="BL38" s="2"/>
+      <c r="BM38" s="2"/>
+      <c r="BN38" s="2"/>
+      <c r="BO38" s="2"/>
+      <c r="BP38" s="2"/>
+      <c r="BQ38" s="2"/>
+      <c r="BR38" s="2"/>
+      <c r="BS38" s="2"/>
+      <c r="BT38" s="2"/>
+      <c r="BU38" s="3"/>
+    </row>
+    <row r="39" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="16"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="15"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="16"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="3"/>
+      <c r="BL39" s="2"/>
+      <c r="BM39" s="2"/>
+      <c r="BN39" s="2"/>
+      <c r="BO39" s="2"/>
+      <c r="BP39" s="2"/>
+      <c r="BQ39" s="2"/>
+      <c r="BR39" s="2"/>
+      <c r="BS39" s="2"/>
+      <c r="BT39" s="2"/>
+      <c r="BU39" s="3"/>
+    </row>
+    <row r="40" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="16"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="15"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="16"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2"/>
+      <c r="BE40" s="2"/>
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
+      <c r="BJ40" s="2"/>
+      <c r="BK40" s="3"/>
+      <c r="BL40" s="2"/>
+      <c r="BM40" s="2"/>
+      <c r="BN40" s="2"/>
+      <c r="BO40" s="2"/>
+      <c r="BP40" s="2"/>
+      <c r="BQ40" s="2"/>
+      <c r="BR40" s="2"/>
+      <c r="BS40" s="2"/>
+      <c r="BT40" s="2"/>
+      <c r="BU40" s="3"/>
+    </row>
+    <row r="41" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="16"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="15"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="16"/>
+      <c r="AZ41" s="2"/>
+      <c r="BA41" s="2"/>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="2"/>
+      <c r="BE41" s="2"/>
+      <c r="BF41" s="2"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="2"/>
+      <c r="BI41" s="2"/>
+      <c r="BJ41" s="2"/>
+      <c r="BK41" s="3"/>
+      <c r="BL41" s="2"/>
+      <c r="BM41" s="2"/>
+      <c r="BN41" s="2"/>
+      <c r="BO41" s="2"/>
+      <c r="BP41" s="2"/>
+      <c r="BQ41" s="2"/>
+      <c r="BR41" s="2"/>
+      <c r="BS41" s="2"/>
+      <c r="BT41" s="2"/>
+      <c r="BU41" s="3"/>
+    </row>
+    <row r="42" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="16"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="2"/>
+      <c r="AN42" s="2"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="15"/>
+      <c r="AU42" s="2"/>
+      <c r="AV42" s="2"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="16"/>
+      <c r="AZ42" s="2"/>
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="2"/>
+      <c r="BD42" s="2"/>
+      <c r="BE42" s="2"/>
+      <c r="BF42" s="2"/>
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="2"/>
+      <c r="BJ42" s="2"/>
+      <c r="BK42" s="3"/>
+      <c r="BL42" s="2"/>
+      <c r="BM42" s="2"/>
+      <c r="BN42" s="2"/>
+      <c r="BO42" s="2"/>
+      <c r="BP42" s="2"/>
+      <c r="BQ42" s="2"/>
+      <c r="BR42" s="2"/>
+      <c r="BS42" s="2"/>
+      <c r="BT42" s="2"/>
+      <c r="BU42" s="3"/>
+    </row>
+    <row r="43" spans="1:73" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="16"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="16"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="2"/>
+      <c r="AN43" s="2"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="2"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="17"/>
+      <c r="AU43" s="18"/>
+      <c r="AV43" s="18"/>
+      <c r="AW43" s="18"/>
+      <c r="AX43" s="18"/>
+      <c r="AY43" s="19"/>
+      <c r="AZ43" s="2"/>
+      <c r="BA43" s="2"/>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="2"/>
+      <c r="BD43" s="2"/>
+      <c r="BE43" s="2"/>
+      <c r="BF43" s="2"/>
+      <c r="BG43" s="2"/>
+      <c r="BH43" s="2"/>
+      <c r="BI43" s="2"/>
+      <c r="BJ43" s="2"/>
+      <c r="BK43" s="3"/>
+      <c r="BL43" s="2"/>
+      <c r="BM43" s="2"/>
+      <c r="BN43" s="2"/>
+      <c r="BO43" s="2"/>
+      <c r="BP43" s="2"/>
+      <c r="BQ43" s="2"/>
+      <c r="BR43" s="2"/>
+      <c r="BS43" s="2"/>
+      <c r="BT43" s="2"/>
+      <c r="BU43" s="3"/>
+    </row>
+    <row r="44" spans="1:73" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="19"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="18"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="2"/>
+      <c r="AO44" s="2"/>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="2"/>
+      <c r="AT44" s="2"/>
+      <c r="AU44" s="2"/>
+      <c r="AV44" s="2"/>
+      <c r="AW44" s="2"/>
+      <c r="AX44" s="2"/>
+      <c r="AY44" s="2"/>
+      <c r="AZ44" s="2"/>
+      <c r="BA44" s="2"/>
+      <c r="BB44" s="2"/>
+      <c r="BC44" s="2"/>
+      <c r="BD44" s="2"/>
+      <c r="BE44" s="2"/>
+      <c r="BF44" s="2"/>
+      <c r="BG44" s="2"/>
+      <c r="BH44" s="2"/>
+      <c r="BI44" s="2"/>
+      <c r="BJ44" s="2"/>
+      <c r="BK44" s="3"/>
+      <c r="BL44" s="2"/>
+      <c r="BM44" s="2"/>
+      <c r="BN44" s="2"/>
+      <c r="BO44" s="2"/>
+      <c r="BP44" s="2"/>
+      <c r="BQ44" s="2"/>
+      <c r="BR44" s="2"/>
+      <c r="BS44" s="2"/>
+      <c r="BT44" s="2"/>
+      <c r="BU44" s="3"/>
+    </row>
+    <row r="45" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6"/>
+      <c r="AM45" s="6"/>
+      <c r="AN45" s="6"/>
+      <c r="AO45" s="6"/>
+      <c r="AP45" s="6"/>
+      <c r="AQ45" s="6"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="6"/>
+      <c r="AT45" s="6"/>
+      <c r="AU45" s="6"/>
+      <c r="AV45" s="6"/>
+      <c r="AW45" s="6"/>
+      <c r="AX45" s="6"/>
+      <c r="AY45" s="6"/>
+      <c r="AZ45" s="6"/>
+      <c r="BA45" s="6"/>
+      <c r="BB45" s="6"/>
+      <c r="BC45" s="6"/>
+      <c r="BD45" s="6"/>
+      <c r="BE45" s="6"/>
+      <c r="BF45" s="6"/>
+      <c r="BG45" s="6"/>
+      <c r="BH45" s="6"/>
+      <c r="BI45" s="6"/>
+      <c r="BJ45" s="6"/>
+      <c r="BK45" s="7"/>
+      <c r="BL45" s="6"/>
+      <c r="BM45" s="6"/>
+      <c r="BN45" s="6"/>
+      <c r="BO45" s="6"/>
+      <c r="BP45" s="6"/>
+      <c r="BQ45" s="6"/>
+      <c r="BR45" s="6"/>
+      <c r="BS45" s="6"/>
+      <c r="BT45" s="6"/>
+      <c r="BU45" s="7"/>
+    </row>
+    <row r="46" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="2"/>
+      <c r="AV46" s="2"/>
+      <c r="BC46" s="2"/>
+      <c r="BD46" s="2"/>
+    </row>
+    <row r="47" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="2"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="2"/>
+      <c r="AU47" s="2"/>
+      <c r="AV47" s="2"/>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="2"/>
+    </row>
+    <row r="48" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2"/>
+      <c r="AV48" s="2"/>
+      <c r="BC48" s="2"/>
+      <c r="BD48" s="2"/>
+    </row>
+    <row r="49" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="2"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="2"/>
+      <c r="AV49" s="2"/>
+      <c r="BC49" s="2"/>
+      <c r="BD49" s="2"/>
+    </row>
+    <row r="50" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="2"/>
+      <c r="AN50" s="2"/>
+      <c r="AO50" s="2"/>
+      <c r="AP50" s="2"/>
+      <c r="AQ50" s="2"/>
+      <c r="AR50" s="2"/>
+      <c r="AS50" s="2"/>
+      <c r="AT50" s="2"/>
+      <c r="AU50" s="2"/>
+      <c r="AV50" s="2"/>
+      <c r="AW50" s="2"/>
+      <c r="AX50" s="2"/>
+      <c r="AY50" s="2"/>
+      <c r="AZ50" s="2"/>
+      <c r="BA50" s="2"/>
+      <c r="BB50" s="2"/>
+      <c r="BC50" s="2"/>
+      <c r="BD50" s="2"/>
+    </row>
+    <row r="51" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="2"/>
+      <c r="AU51" s="2"/>
+      <c r="AV51" s="2"/>
+      <c r="AW51" s="2"/>
+      <c r="AX51" s="2"/>
+      <c r="AY51" s="2"/>
+      <c r="AZ51" s="2"/>
+      <c r="BA51" s="2"/>
+      <c r="BB51" s="2"/>
+      <c r="BC51" s="2"/>
+      <c r="BD51" s="2"/>
+    </row>
+    <row r="52" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AN52" s="2"/>
+      <c r="AO52" s="2"/>
+      <c r="AP52" s="2"/>
+      <c r="AQ52" s="2"/>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="2"/>
+      <c r="AT52" s="2"/>
+      <c r="AU52" s="2"/>
+      <c r="AV52" s="2"/>
+      <c r="AW52" s="2"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="2"/>
+      <c r="AZ52" s="2"/>
+      <c r="BA52" s="2"/>
+      <c r="BB52" s="2"/>
+      <c r="BC52" s="2"/>
+      <c r="BD52" s="2"/>
+    </row>
+    <row r="53" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="2"/>
+      <c r="AO53" s="2"/>
+      <c r="AP53" s="2"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="2"/>
+      <c r="AU53" s="2"/>
+      <c r="AV53" s="2"/>
+      <c r="AW53" s="2"/>
+      <c r="AX53" s="2"/>
+      <c r="AY53" s="2"/>
+      <c r="AZ53" s="2"/>
+      <c r="BA53" s="2"/>
+      <c r="BB53" s="2"/>
+      <c r="BC53" s="2"/>
+      <c r="BD53" s="2"/>
+    </row>
+    <row r="54" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="2"/>
+      <c r="AN54" s="2"/>
+      <c r="AO54" s="2"/>
+      <c r="AP54" s="2"/>
+      <c r="AQ54" s="2"/>
+      <c r="AR54" s="2"/>
+      <c r="AS54" s="2"/>
+      <c r="AT54" s="2"/>
+      <c r="AU54" s="2"/>
+      <c r="AV54" s="2"/>
+      <c r="AW54" s="2"/>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="2"/>
+      <c r="AZ54" s="2"/>
+      <c r="BA54" s="2"/>
+      <c r="BB54" s="2"/>
+      <c r="BC54" s="2"/>
+      <c r="BD54" s="2"/>
+    </row>
+    <row r="55" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="2"/>
+      <c r="AN55" s="2"/>
+      <c r="AO55" s="2"/>
+      <c r="AP55" s="2"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="2"/>
+      <c r="AS55" s="2"/>
+      <c r="AT55" s="2"/>
+      <c r="AU55" s="2"/>
+      <c r="AV55" s="2"/>
+      <c r="AW55" s="2"/>
+      <c r="AX55" s="2"/>
+      <c r="AY55" s="2"/>
+      <c r="AZ55" s="2"/>
+      <c r="BA55" s="2"/>
+      <c r="BB55" s="2"/>
+      <c r="BC55" s="2"/>
+      <c r="BD55" s="2"/>
+    </row>
+    <row r="56" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AL56" s="2"/>
+      <c r="AM56" s="2"/>
+      <c r="AN56" s="2"/>
+      <c r="AO56" s="2"/>
+      <c r="AP56" s="2"/>
+      <c r="AQ56" s="2"/>
+      <c r="AR56" s="2"/>
+      <c r="AS56" s="2"/>
+      <c r="AT56" s="2"/>
+      <c r="AU56" s="2"/>
+      <c r="AV56" s="2"/>
+      <c r="AW56" s="2"/>
+      <c r="AX56" s="2"/>
+      <c r="AY56" s="2"/>
+      <c r="AZ56" s="2"/>
+      <c r="BA56" s="2"/>
+      <c r="BB56" s="2"/>
+      <c r="BC56" s="2"/>
+      <c r="BD56" s="2"/>
+    </row>
+    <row r="57" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AL57" s="2"/>
+      <c r="AM57" s="2"/>
+      <c r="AN57" s="2"/>
+      <c r="AO57" s="2"/>
+      <c r="AP57" s="2"/>
+      <c r="AQ57" s="2"/>
+      <c r="AR57" s="2"/>
+      <c r="AS57" s="2"/>
+      <c r="AT57" s="2"/>
+      <c r="AU57" s="2"/>
+      <c r="AV57" s="2"/>
+      <c r="AW57" s="2"/>
+      <c r="AX57" s="2"/>
+      <c r="AY57" s="2"/>
+      <c r="AZ57" s="2"/>
+      <c r="BA57" s="2"/>
+      <c r="BB57" s="2"/>
+      <c r="BC57" s="2"/>
+      <c r="BD57" s="2"/>
+    </row>
+    <row r="77" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I77" s="15"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="16"/>
+    </row>
+    <row r="78" spans="9:14" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I78" s="17"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="BB30:BJ32"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
+    <mergeCell ref="AT1:BC1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:BC2"/>
+    <mergeCell ref="AP1:AS1"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;8- &amp;P -&amp;R&amp;"明朝,標準"&amp;8Copyright © 2007 sample Corporation. All Rights Reserved.</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BK102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BK27" sqref="BK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
@@ -22591,130 +27143,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="85" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="83" t="s">
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="83" t="s">
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="78"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="81"/>
     </row>
     <row r="2" spans="1:57" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="84" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="84" t="s">
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
-      <c r="AW2" s="79"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="79"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="80"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82"/>
+      <c r="BC2" s="83"/>
     </row>
     <row r="3" spans="1:57" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -24283,17 +28835,17 @@
       <c r="AY30" s="2"/>
       <c r="AZ30" s="2"/>
       <c r="BA30" s="2"/>
-      <c r="BB30" s="101" t="s">
+      <c r="BB30" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="BC30" s="102"/>
-      <c r="BD30" s="102"/>
-      <c r="BE30" s="102"/>
-      <c r="BF30" s="102"/>
-      <c r="BG30" s="102"/>
-      <c r="BH30" s="102"/>
-      <c r="BI30" s="102"/>
-      <c r="BJ30" s="103"/>
+      <c r="BC30" s="114"/>
+      <c r="BD30" s="114"/>
+      <c r="BE30" s="114"/>
+      <c r="BF30" s="114"/>
+      <c r="BG30" s="114"/>
+      <c r="BH30" s="114"/>
+      <c r="BI30" s="114"/>
+      <c r="BJ30" s="115"/>
       <c r="BK30" s="3"/>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.15">
@@ -24350,3129 +28902,15 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
-      <c r="BB31" s="104"/>
-      <c r="BC31" s="105"/>
-      <c r="BD31" s="105"/>
-      <c r="BE31" s="105"/>
-      <c r="BF31" s="105"/>
-      <c r="BG31" s="105"/>
-      <c r="BH31" s="105"/>
-      <c r="BI31" s="105"/>
-      <c r="BJ31" s="106"/>
-      <c r="BK31" s="3"/>
-    </row>
-    <row r="32" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
-      <c r="AK32" s="2"/>
-      <c r="AL32" s="2"/>
-      <c r="AM32" s="2"/>
-      <c r="AN32" s="2"/>
-      <c r="AO32" s="2"/>
-      <c r="AP32" s="2"/>
-      <c r="AQ32" s="2"/>
-      <c r="AR32" s="1"/>
-      <c r="AS32" s="2"/>
-      <c r="AT32" s="2"/>
-      <c r="AU32" s="2"/>
-      <c r="AV32" s="2"/>
-      <c r="AW32" s="2"/>
-      <c r="AX32" s="2"/>
-      <c r="AY32" s="2"/>
-      <c r="AZ32" s="2"/>
-      <c r="BA32" s="2"/>
-      <c r="BB32" s="107"/>
-      <c r="BC32" s="108"/>
-      <c r="BD32" s="108"/>
-      <c r="BE32" s="108"/>
-      <c r="BF32" s="108"/>
-      <c r="BG32" s="108"/>
-      <c r="BH32" s="108"/>
-      <c r="BI32" s="108"/>
-      <c r="BJ32" s="109"/>
-      <c r="BK32" s="3"/>
-    </row>
-    <row r="33" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD33" s="49"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="50"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2"/>
-      <c r="AN33" s="2"/>
-      <c r="AO33" s="2"/>
-      <c r="AP33" s="2"/>
-      <c r="AQ33" s="2"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="2"/>
-      <c r="AT33" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU33" s="55"/>
-      <c r="AV33" s="55"/>
-      <c r="AW33" s="55"/>
-      <c r="AX33" s="55"/>
-      <c r="AY33" s="56"/>
-      <c r="AZ33" s="2"/>
-      <c r="BA33" s="2"/>
-      <c r="BB33" s="2"/>
-      <c r="BC33" s="2"/>
-      <c r="BD33" s="2"/>
-      <c r="BE33" s="2"/>
-      <c r="BF33" s="2"/>
-      <c r="BG33" s="2"/>
-      <c r="BH33" s="2"/>
-      <c r="BI33" s="2"/>
-      <c r="BJ33" s="2"/>
-      <c r="BK33" s="3"/>
-    </row>
-    <row r="34" spans="1:63" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="31"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34" s="2"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="2"/>
-      <c r="AP34" s="2"/>
-      <c r="AQ34" s="2"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="2"/>
-      <c r="AT34" s="32"/>
-      <c r="AU34" s="33"/>
-      <c r="AV34" s="33"/>
-      <c r="AW34" s="33"/>
-      <c r="AX34" s="33"/>
-      <c r="AY34" s="34"/>
-      <c r="AZ34" s="2"/>
-      <c r="BA34" s="2"/>
-      <c r="BB34" s="2"/>
-      <c r="BC34" s="2"/>
-      <c r="BD34" s="2"/>
-      <c r="BE34" s="2"/>
-      <c r="BF34" s="2"/>
-      <c r="BG34" s="2"/>
-      <c r="BH34" s="2"/>
-      <c r="BI34" s="2"/>
-      <c r="BJ34" s="2"/>
-      <c r="BK34" s="3"/>
-    </row>
-    <row r="35" spans="1:63" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
-      <c r="AM35" s="2"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="2"/>
-      <c r="AP35" s="2"/>
-      <c r="AQ35" s="2"/>
-      <c r="AR35" s="1"/>
-      <c r="AS35" s="2"/>
-      <c r="AT35" s="32"/>
-      <c r="AU35" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV35" s="33"/>
-      <c r="AW35" s="33"/>
-      <c r="AX35" s="33"/>
-      <c r="AY35" s="34"/>
-      <c r="AZ35" s="2"/>
-      <c r="BA35" s="2"/>
-      <c r="BB35" s="2"/>
-      <c r="BC35" s="2"/>
-      <c r="BD35" s="2"/>
-      <c r="BE35" s="2"/>
-      <c r="BF35" s="2"/>
-      <c r="BG35" s="2"/>
-      <c r="BH35" s="2"/>
-      <c r="BI35" s="2"/>
-      <c r="BJ35" s="2"/>
-      <c r="BK35" s="3"/>
-    </row>
-    <row r="36" spans="1:63" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="37"/>
-      <c r="AH36" s="2"/>
-      <c r="AI36" s="2"/>
-      <c r="AJ36" s="2"/>
-      <c r="AK36" s="2"/>
-      <c r="AL36" s="2"/>
-      <c r="AM36" s="2"/>
-      <c r="AN36" s="2"/>
-      <c r="AO36" s="2"/>
-      <c r="AP36" s="2"/>
-      <c r="AQ36" s="2"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="2"/>
-      <c r="AT36" s="35"/>
-      <c r="AU36" s="36"/>
-      <c r="AV36" s="36"/>
-      <c r="AW36" s="36"/>
-      <c r="AX36" s="36"/>
-      <c r="AY36" s="37"/>
-      <c r="AZ36" s="2"/>
-      <c r="BA36" s="2"/>
-      <c r="BB36" s="2"/>
-      <c r="BC36" s="2"/>
-      <c r="BD36" s="2"/>
-      <c r="BE36" s="2"/>
-      <c r="BF36" s="2"/>
-      <c r="BG36" s="2"/>
-      <c r="BH36" s="2"/>
-      <c r="BI36" s="2"/>
-      <c r="BJ36" s="2"/>
-      <c r="BK36" s="3"/>
-    </row>
-    <row r="37" spans="1:63" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
-      <c r="AL37" s="2"/>
-      <c r="AM37" s="2"/>
-      <c r="AN37" s="2"/>
-      <c r="AO37" s="2"/>
-      <c r="AP37" s="2"/>
-      <c r="AQ37" s="2"/>
-      <c r="AR37" s="1"/>
-      <c r="AS37" s="2"/>
-      <c r="AT37" s="15"/>
-      <c r="AU37" s="2"/>
-      <c r="AV37" s="2"/>
-      <c r="AW37" s="2"/>
-      <c r="AX37" s="2"/>
-      <c r="AY37" s="16"/>
-      <c r="AZ37" s="2"/>
-      <c r="BA37" s="2"/>
-      <c r="BB37" s="2"/>
-      <c r="BC37" s="2"/>
-      <c r="BD37" s="2"/>
-      <c r="BE37" s="2"/>
-      <c r="BF37" s="2"/>
-      <c r="BG37" s="2"/>
-      <c r="BH37" s="2"/>
-      <c r="BI37" s="2"/>
-      <c r="BJ37" s="2"/>
-      <c r="BK37" s="3"/>
-    </row>
-    <row r="38" spans="1:63" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="2"/>
-      <c r="AI38" s="2"/>
-      <c r="AJ38" s="2"/>
-      <c r="AK38" s="2"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" s="2"/>
-      <c r="AN38" s="2"/>
-      <c r="AO38" s="2"/>
-      <c r="AP38" s="2"/>
-      <c r="AQ38" s="2"/>
-      <c r="AR38" s="1"/>
-      <c r="AS38" s="2"/>
-      <c r="AT38" s="15"/>
-      <c r="AU38" s="2"/>
-      <c r="AV38" s="2"/>
-      <c r="AW38" s="2"/>
-      <c r="AX38" s="2"/>
-      <c r="AY38" s="16"/>
-      <c r="AZ38" s="2"/>
-      <c r="BA38" s="2"/>
-      <c r="BB38" s="2"/>
-      <c r="BC38" s="2"/>
-      <c r="BD38" s="2"/>
-      <c r="BE38" s="2"/>
-      <c r="BF38" s="2"/>
-      <c r="BG38" s="2"/>
-      <c r="BH38" s="2"/>
-      <c r="BI38" s="2"/>
-      <c r="BJ38" s="2"/>
-      <c r="BK38" s="3"/>
-    </row>
-    <row r="39" spans="1:63" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="16"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="2"/>
-      <c r="AQ39" s="2"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="2"/>
-      <c r="AT39" s="15"/>
-      <c r="AU39" s="2"/>
-      <c r="AV39" s="2"/>
-      <c r="AW39" s="2"/>
-      <c r="AX39" s="2"/>
-      <c r="AY39" s="16"/>
-      <c r="AZ39" s="2"/>
-      <c r="BA39" s="2"/>
-      <c r="BB39" s="2"/>
-      <c r="BC39" s="2"/>
-      <c r="BD39" s="2"/>
-      <c r="BE39" s="2"/>
-      <c r="BF39" s="2"/>
-      <c r="BG39" s="2"/>
-      <c r="BH39" s="2"/>
-      <c r="BI39" s="2"/>
-      <c r="BJ39" s="2"/>
-      <c r="BK39" s="3"/>
-    </row>
-    <row r="40" spans="1:63" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="16"/>
-      <c r="AH40" s="2"/>
-      <c r="AI40" s="2"/>
-      <c r="AJ40" s="2"/>
-      <c r="AK40" s="2"/>
-      <c r="AL40" s="2"/>
-      <c r="AM40" s="2"/>
-      <c r="AN40" s="2"/>
-      <c r="AO40" s="2"/>
-      <c r="AP40" s="2"/>
-      <c r="AQ40" s="2"/>
-      <c r="AR40" s="1"/>
-      <c r="AS40" s="2"/>
-      <c r="AT40" s="15"/>
-      <c r="AU40" s="2"/>
-      <c r="AV40" s="2"/>
-      <c r="AW40" s="2"/>
-      <c r="AX40" s="2"/>
-      <c r="AY40" s="16"/>
-      <c r="AZ40" s="2"/>
-      <c r="BA40" s="2"/>
-      <c r="BB40" s="2"/>
-      <c r="BC40" s="2"/>
-      <c r="BD40" s="2"/>
-      <c r="BE40" s="2"/>
-      <c r="BF40" s="2"/>
-      <c r="BG40" s="2"/>
-      <c r="BH40" s="2"/>
-      <c r="BI40" s="2"/>
-      <c r="BJ40" s="2"/>
-      <c r="BK40" s="3"/>
-    </row>
-    <row r="41" spans="1:63" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="2"/>
-      <c r="AG41" s="16"/>
-      <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="2"/>
-      <c r="AK41" s="2"/>
-      <c r="AL41" s="2"/>
-      <c r="AM41" s="2"/>
-      <c r="AN41" s="2"/>
-      <c r="AO41" s="2"/>
-      <c r="AP41" s="2"/>
-      <c r="AQ41" s="2"/>
-      <c r="AR41" s="1"/>
-      <c r="AS41" s="2"/>
-      <c r="AT41" s="15"/>
-      <c r="AU41" s="2"/>
-      <c r="AV41" s="2"/>
-      <c r="AW41" s="2"/>
-      <c r="AX41" s="2"/>
-      <c r="AY41" s="16"/>
-      <c r="AZ41" s="2"/>
-      <c r="BA41" s="2"/>
-      <c r="BB41" s="2"/>
-      <c r="BC41" s="2"/>
-      <c r="BD41" s="2"/>
-      <c r="BE41" s="2"/>
-      <c r="BF41" s="2"/>
-      <c r="BG41" s="2"/>
-      <c r="BH41" s="2"/>
-      <c r="BI41" s="2"/>
-      <c r="BJ41" s="2"/>
-      <c r="BK41" s="3"/>
-    </row>
-    <row r="42" spans="1:63" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="16"/>
-      <c r="AH42" s="2"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
-      <c r="AK42" s="2"/>
-      <c r="AL42" s="2"/>
-      <c r="AM42" s="2"/>
-      <c r="AN42" s="2"/>
-      <c r="AO42" s="2"/>
-      <c r="AP42" s="2"/>
-      <c r="AQ42" s="2"/>
-      <c r="AR42" s="1"/>
-      <c r="AS42" s="2"/>
-      <c r="AT42" s="15"/>
-      <c r="AU42" s="2"/>
-      <c r="AV42" s="2"/>
-      <c r="AW42" s="2"/>
-      <c r="AX42" s="2"/>
-      <c r="AY42" s="16"/>
-      <c r="AZ42" s="2"/>
-      <c r="BA42" s="2"/>
-      <c r="BB42" s="2"/>
-      <c r="BC42" s="2"/>
-      <c r="BD42" s="2"/>
-      <c r="BE42" s="2"/>
-      <c r="BF42" s="2"/>
-      <c r="BG42" s="2"/>
-      <c r="BH42" s="2"/>
-      <c r="BI42" s="2"/>
-      <c r="BJ42" s="2"/>
-      <c r="BK42" s="3"/>
-    </row>
-    <row r="43" spans="1:63" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="16"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
-      <c r="AK43" s="2"/>
-      <c r="AL43" s="2"/>
-      <c r="AM43" s="2"/>
-      <c r="AN43" s="2"/>
-      <c r="AO43" s="2"/>
-      <c r="AP43" s="2"/>
-      <c r="AQ43" s="2"/>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="2"/>
-      <c r="AT43" s="17"/>
-      <c r="AU43" s="18"/>
-      <c r="AV43" s="18"/>
-      <c r="AW43" s="18"/>
-      <c r="AX43" s="18"/>
-      <c r="AY43" s="19"/>
-      <c r="AZ43" s="2"/>
-      <c r="BA43" s="2"/>
-      <c r="BB43" s="2"/>
-      <c r="BC43" s="2"/>
-      <c r="BD43" s="2"/>
-      <c r="BE43" s="2"/>
-      <c r="BF43" s="2"/>
-      <c r="BG43" s="2"/>
-      <c r="BH43" s="2"/>
-      <c r="BI43" s="2"/>
-      <c r="BJ43" s="2"/>
-      <c r="BK43" s="3"/>
-    </row>
-    <row r="44" spans="1:63" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="17"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="18"/>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="19"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
-      <c r="AL44" s="2"/>
-      <c r="AM44" s="2"/>
-      <c r="AN44" s="2"/>
-      <c r="AO44" s="2"/>
-      <c r="AP44" s="2"/>
-      <c r="AQ44" s="2"/>
-      <c r="AR44" s="1"/>
-      <c r="AS44" s="2"/>
-      <c r="AT44" s="2"/>
-      <c r="AU44" s="2"/>
-      <c r="AV44" s="2"/>
-      <c r="AW44" s="2"/>
-      <c r="AX44" s="2"/>
-      <c r="AY44" s="2"/>
-      <c r="AZ44" s="2"/>
-      <c r="BA44" s="2"/>
-      <c r="BB44" s="2"/>
-      <c r="BC44" s="2"/>
-      <c r="BD44" s="2"/>
-      <c r="BE44" s="2"/>
-      <c r="BF44" s="2"/>
-      <c r="BG44" s="2"/>
-      <c r="BH44" s="2"/>
-      <c r="BI44" s="2"/>
-      <c r="BJ44" s="2"/>
-      <c r="BK44" s="3"/>
-    </row>
-    <row r="45" spans="1:63" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="6"/>
-      <c r="AK45" s="6"/>
-      <c r="AL45" s="6"/>
-      <c r="AM45" s="6"/>
-      <c r="AN45" s="6"/>
-      <c r="AO45" s="6"/>
-      <c r="AP45" s="6"/>
-      <c r="AQ45" s="6"/>
-      <c r="AR45" s="5"/>
-      <c r="AS45" s="6"/>
-      <c r="AT45" s="6"/>
-      <c r="AU45" s="6"/>
-      <c r="AV45" s="6"/>
-      <c r="AW45" s="6"/>
-      <c r="AX45" s="6"/>
-      <c r="AY45" s="6"/>
-      <c r="AZ45" s="6"/>
-      <c r="BA45" s="6"/>
-      <c r="BB45" s="6"/>
-      <c r="BC45" s="6"/>
-      <c r="BD45" s="6"/>
-      <c r="BE45" s="6"/>
-      <c r="BF45" s="6"/>
-      <c r="BG45" s="6"/>
-      <c r="BH45" s="6"/>
-      <c r="BI45" s="6"/>
-      <c r="BJ45" s="6"/>
-      <c r="BK45" s="7"/>
-    </row>
-    <row r="46" spans="1:63" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AQ46" s="2"/>
-      <c r="AR46" s="2"/>
-      <c r="AS46" s="2"/>
-      <c r="AT46" s="2"/>
-      <c r="AU46" s="2"/>
-      <c r="AV46" s="2"/>
-      <c r="BC46" s="2"/>
-      <c r="BD46" s="2"/>
-    </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="AK47" s="2"/>
-      <c r="AL47" s="2"/>
-      <c r="AM47" s="2"/>
-      <c r="AN47" s="2"/>
-      <c r="AO47" s="2"/>
-      <c r="AP47" s="2"/>
-      <c r="AQ47" s="2"/>
-      <c r="AR47" s="2"/>
-      <c r="AS47" s="2"/>
-      <c r="AT47" s="2"/>
-      <c r="AU47" s="2"/>
-      <c r="AV47" s="2"/>
-      <c r="BC47" s="2"/>
-      <c r="BD47" s="2"/>
-    </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="AK48" s="2"/>
-      <c r="AL48" s="2"/>
-      <c r="AM48" s="2"/>
-      <c r="AN48" s="2"/>
-      <c r="AO48" s="2"/>
-      <c r="AP48" s="2"/>
-      <c r="AQ48" s="2"/>
-      <c r="AR48" s="2"/>
-      <c r="AS48" s="2"/>
-      <c r="AT48" s="2"/>
-      <c r="AU48" s="2"/>
-      <c r="AV48" s="2"/>
-      <c r="BC48" s="2"/>
-      <c r="BD48" s="2"/>
-    </row>
-    <row r="49" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="AH49" s="2"/>
-      <c r="AI49" s="2"/>
-      <c r="AJ49" s="2"/>
-      <c r="AK49" s="2"/>
-      <c r="AL49" s="2"/>
-      <c r="AM49" s="2"/>
-      <c r="AN49" s="2"/>
-      <c r="AO49" s="2"/>
-      <c r="AP49" s="2"/>
-      <c r="AQ49" s="2"/>
-      <c r="AR49" s="2"/>
-      <c r="AS49" s="2"/>
-      <c r="AT49" s="2"/>
-      <c r="AU49" s="2"/>
-      <c r="AV49" s="2"/>
-      <c r="BC49" s="2"/>
-      <c r="BD49" s="2"/>
-    </row>
-    <row r="50" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="AL50" s="2"/>
-      <c r="AM50" s="2"/>
-      <c r="AN50" s="2"/>
-      <c r="AO50" s="2"/>
-      <c r="AP50" s="2"/>
-      <c r="AQ50" s="2"/>
-      <c r="AR50" s="2"/>
-      <c r="AS50" s="2"/>
-      <c r="AT50" s="2"/>
-      <c r="AU50" s="2"/>
-      <c r="AV50" s="2"/>
-      <c r="AW50" s="2"/>
-      <c r="AX50" s="2"/>
-      <c r="AY50" s="2"/>
-      <c r="AZ50" s="2"/>
-      <c r="BA50" s="2"/>
-      <c r="BB50" s="2"/>
-      <c r="BC50" s="2"/>
-      <c r="BD50" s="2"/>
-    </row>
-    <row r="51" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="AL51" s="2"/>
-      <c r="AM51" s="2"/>
-      <c r="AN51" s="2"/>
-      <c r="AO51" s="2"/>
-      <c r="AP51" s="2"/>
-      <c r="AQ51" s="2"/>
-      <c r="AR51" s="2"/>
-      <c r="AS51" s="2"/>
-      <c r="AT51" s="2"/>
-      <c r="AU51" s="2"/>
-      <c r="AV51" s="2"/>
-      <c r="AW51" s="2"/>
-      <c r="AX51" s="2"/>
-      <c r="AY51" s="2"/>
-      <c r="AZ51" s="2"/>
-      <c r="BA51" s="2"/>
-      <c r="BB51" s="2"/>
-      <c r="BC51" s="2"/>
-      <c r="BD51" s="2"/>
-    </row>
-    <row r="52" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
-      <c r="AL52" s="2"/>
-      <c r="AM52" s="2"/>
-      <c r="AN52" s="2"/>
-      <c r="AO52" s="2"/>
-      <c r="AP52" s="2"/>
-      <c r="AQ52" s="2"/>
-      <c r="AR52" s="2"/>
-      <c r="AS52" s="2"/>
-      <c r="AT52" s="2"/>
-      <c r="AU52" s="2"/>
-      <c r="AV52" s="2"/>
-      <c r="AW52" s="2"/>
-      <c r="AX52" s="2"/>
-      <c r="AY52" s="2"/>
-      <c r="AZ52" s="2"/>
-      <c r="BA52" s="2"/>
-      <c r="BB52" s="2"/>
-      <c r="BC52" s="2"/>
-      <c r="BD52" s="2"/>
-    </row>
-    <row r="53" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AL53" s="2"/>
-      <c r="AM53" s="2"/>
-      <c r="AN53" s="2"/>
-      <c r="AO53" s="2"/>
-      <c r="AP53" s="2"/>
-      <c r="AQ53" s="2"/>
-      <c r="AR53" s="2"/>
-      <c r="AS53" s="2"/>
-      <c r="AT53" s="2"/>
-      <c r="AU53" s="2"/>
-      <c r="AV53" s="2"/>
-      <c r="AW53" s="2"/>
-      <c r="AX53" s="2"/>
-      <c r="AY53" s="2"/>
-      <c r="AZ53" s="2"/>
-      <c r="BA53" s="2"/>
-      <c r="BB53" s="2"/>
-      <c r="BC53" s="2"/>
-      <c r="BD53" s="2"/>
-    </row>
-    <row r="54" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AL54" s="2"/>
-      <c r="AM54" s="2"/>
-      <c r="AN54" s="2"/>
-      <c r="AO54" s="2"/>
-      <c r="AP54" s="2"/>
-      <c r="AQ54" s="2"/>
-      <c r="AR54" s="2"/>
-      <c r="AS54" s="2"/>
-      <c r="AT54" s="2"/>
-      <c r="AU54" s="2"/>
-      <c r="AV54" s="2"/>
-      <c r="AW54" s="2"/>
-      <c r="AX54" s="2"/>
-      <c r="AY54" s="2"/>
-      <c r="AZ54" s="2"/>
-      <c r="BA54" s="2"/>
-      <c r="BB54" s="2"/>
-      <c r="BC54" s="2"/>
-      <c r="BD54" s="2"/>
-    </row>
-    <row r="55" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AL55" s="2"/>
-      <c r="AM55" s="2"/>
-      <c r="AN55" s="2"/>
-      <c r="AO55" s="2"/>
-      <c r="AP55" s="2"/>
-      <c r="AQ55" s="2"/>
-      <c r="AR55" s="2"/>
-      <c r="AS55" s="2"/>
-      <c r="AT55" s="2"/>
-      <c r="AU55" s="2"/>
-      <c r="AV55" s="2"/>
-      <c r="AW55" s="2"/>
-      <c r="AX55" s="2"/>
-      <c r="AY55" s="2"/>
-      <c r="AZ55" s="2"/>
-      <c r="BA55" s="2"/>
-      <c r="BB55" s="2"/>
-      <c r="BC55" s="2"/>
-      <c r="BD55" s="2"/>
-    </row>
-    <row r="56" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="AD56" s="2"/>
-      <c r="AE56" s="2"/>
-      <c r="AL56" s="2"/>
-      <c r="AM56" s="2"/>
-      <c r="AN56" s="2"/>
-      <c r="AO56" s="2"/>
-      <c r="AP56" s="2"/>
-      <c r="AQ56" s="2"/>
-      <c r="AR56" s="2"/>
-      <c r="AS56" s="2"/>
-      <c r="AT56" s="2"/>
-      <c r="AU56" s="2"/>
-      <c r="AV56" s="2"/>
-      <c r="AW56" s="2"/>
-      <c r="AX56" s="2"/>
-      <c r="AY56" s="2"/>
-      <c r="AZ56" s="2"/>
-      <c r="BA56" s="2"/>
-      <c r="BB56" s="2"/>
-      <c r="BC56" s="2"/>
-      <c r="BD56" s="2"/>
-    </row>
-    <row r="57" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="2"/>
-      <c r="AL57" s="2"/>
-      <c r="AM57" s="2"/>
-      <c r="AN57" s="2"/>
-      <c r="AO57" s="2"/>
-      <c r="AP57" s="2"/>
-      <c r="AQ57" s="2"/>
-      <c r="AR57" s="2"/>
-      <c r="AS57" s="2"/>
-      <c r="AT57" s="2"/>
-      <c r="AU57" s="2"/>
-      <c r="AV57" s="2"/>
-      <c r="AW57" s="2"/>
-      <c r="AX57" s="2"/>
-      <c r="AY57" s="2"/>
-      <c r="AZ57" s="2"/>
-      <c r="BA57" s="2"/>
-      <c r="BB57" s="2"/>
-      <c r="BC57" s="2"/>
-      <c r="BD57" s="2"/>
-    </row>
-    <row r="77" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I77" s="15"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="16"/>
-    </row>
-    <row r="78" spans="9:14" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="I78" s="17"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="BB30:BJ32"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="AT1:BC1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AO2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT2:BC2"/>
-    <mergeCell ref="AP1:AS1"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;8- &amp;P -&amp;R&amp;"明朝,標準"&amp;8Copyright © 2007 sample Corporation. All Rights Reserved.</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK102"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU87" sqref="AU87"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="2.6640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:57" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="78"/>
-    </row>
-    <row r="2" spans="1:57" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
-      <c r="AW2" s="79"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="79"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="80"/>
-    </row>
-    <row r="3" spans="1:57" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="10"/>
-      <c r="BA4" s="10"/>
-      <c r="BB4" s="10"/>
-      <c r="BC4" s="10"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="2"/>
-      <c r="AZ6" s="2"/>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2"/>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
-    </row>
-    <row r="9" spans="1:57" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-    </row>
-    <row r="10" spans="1:57" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK10" s="40"/>
-      <c r="AL10" s="40"/>
-      <c r="AM10" s="40"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-    </row>
-    <row r="11" spans="1:57" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="43"/>
-      <c r="AN11" s="44"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AY11" s="48"/>
-      <c r="AZ11" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA11" s="49"/>
-      <c r="BB11" s="49"/>
-      <c r="BC11" s="49"/>
-      <c r="BD11" s="50"/>
-      <c r="BE11" s="2"/>
-    </row>
-    <row r="12" spans="1:57" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="47"/>
-      <c r="AO12" s="2"/>
-      <c r="AP12" s="2"/>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
-      <c r="AS12" s="2"/>
-      <c r="AT12" s="2"/>
-      <c r="AU12" s="2"/>
-      <c r="AV12" s="2"/>
-      <c r="AY12" s="29"/>
-      <c r="AZ12" s="30"/>
-      <c r="BA12" s="30"/>
-      <c r="BB12" s="30"/>
-      <c r="BC12" s="30"/>
-      <c r="BD12" s="31"/>
-      <c r="BE12" s="2"/>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="2"/>
-      <c r="AU13" s="2"/>
-      <c r="AV13" s="2"/>
-      <c r="AY13" s="32"/>
-      <c r="AZ13" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA13" s="33"/>
-      <c r="BB13" s="33"/>
-      <c r="BC13" s="33"/>
-      <c r="BD13" s="34"/>
-      <c r="BE13" s="2"/>
-    </row>
-    <row r="14" spans="1:57" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AY14" s="32"/>
-      <c r="AZ14" s="33"/>
-      <c r="BA14" s="33"/>
-      <c r="BB14" s="33"/>
-      <c r="BC14" s="33"/>
-      <c r="BD14" s="34"/>
-      <c r="BE14" s="2"/>
-    </row>
-    <row r="15" spans="1:57" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="2"/>
-      <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
-      <c r="AY15" s="12"/>
-      <c r="AZ15" s="13"/>
-      <c r="BA15" s="13"/>
-      <c r="BB15" s="13"/>
-      <c r="BC15" s="13"/>
-      <c r="BD15" s="14"/>
-      <c r="BE15" s="2"/>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="16"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="2"/>
-      <c r="AT16" s="2"/>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
-      <c r="AY16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ16" s="2"/>
-      <c r="BA16" s="2"/>
-      <c r="BB16" s="2"/>
-      <c r="BC16" s="2"/>
-      <c r="BD16" s="16"/>
-      <c r="BE16" s="2"/>
-    </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="2"/>
-      <c r="AP17" s="2"/>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
-      <c r="AS17" s="2"/>
-      <c r="AT17" s="2"/>
-      <c r="AU17" s="2"/>
-      <c r="AV17" s="2"/>
-      <c r="AY17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ17" s="2"/>
-      <c r="BA17" s="2"/>
-      <c r="BB17" s="2"/>
-      <c r="BC17" s="2"/>
-      <c r="BD17" s="16"/>
-      <c r="BE17" s="2"/>
-    </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="2"/>
-      <c r="AP18" s="2"/>
-      <c r="AQ18" s="2"/>
-      <c r="AR18" s="2"/>
-      <c r="AS18" s="2"/>
-      <c r="AT18" s="2"/>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="2"/>
-      <c r="AY18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ18" s="2"/>
-      <c r="BA18" s="2"/>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="2"/>
-      <c r="BD18" s="16"/>
-      <c r="BE18" s="2"/>
-    </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="16"/>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="2"/>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AY19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="16"/>
-      <c r="BE19" s="2"/>
-    </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="2"/>
-      <c r="AP20" s="2"/>
-      <c r="AQ20" s="2"/>
-      <c r="AR20" s="2"/>
-      <c r="AS20" s="2"/>
-      <c r="AT20" s="2"/>
-      <c r="AU20" s="2"/>
-      <c r="AV20" s="2"/>
-      <c r="AY20" s="15"/>
-      <c r="AZ20" s="2"/>
-      <c r="BA20" s="2"/>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="2"/>
-      <c r="BD20" s="16"/>
-      <c r="BE20" s="2"/>
-    </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
-      <c r="AN21" s="16"/>
-      <c r="AO21" s="2"/>
-      <c r="AP21" s="2"/>
-      <c r="AQ21" s="2"/>
-      <c r="AR21" s="2"/>
-      <c r="AS21" s="2"/>
-      <c r="AT21" s="2"/>
-      <c r="AU21" s="2"/>
-      <c r="AV21" s="2"/>
-      <c r="AY21" s="15"/>
-      <c r="AZ21" s="2"/>
-      <c r="BA21" s="2"/>
-      <c r="BB21" s="2"/>
-      <c r="BC21" s="2"/>
-      <c r="BD21" s="16"/>
-      <c r="BE21" s="2"/>
-    </row>
-    <row r="22" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="18"/>
-      <c r="AN22" s="19"/>
-      <c r="AO22" s="2"/>
-      <c r="AP22" s="2"/>
-      <c r="AQ22" s="2"/>
-      <c r="AR22" s="2"/>
-      <c r="AS22" s="2"/>
-      <c r="AT22" s="2"/>
-      <c r="AU22" s="2"/>
-      <c r="AV22" s="2"/>
-      <c r="AY22" s="17"/>
-      <c r="AZ22" s="18"/>
-      <c r="BA22" s="18"/>
-      <c r="BB22" s="18"/>
-      <c r="BC22" s="18"/>
-      <c r="BD22" s="19"/>
-      <c r="BE22" s="2"/>
-    </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="2"/>
-      <c r="AQ23" s="2"/>
-      <c r="AR23" s="2"/>
-      <c r="AS23" s="2"/>
-      <c r="AT23" s="2"/>
-      <c r="AU23" s="2"/>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="2"/>
-      <c r="AY23" s="2"/>
-      <c r="AZ23" s="2"/>
-      <c r="BA23" s="2"/>
-      <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
-      <c r="BD23" s="2"/>
-      <c r="BE23" s="2"/>
-    </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
-      <c r="AR24" s="2"/>
-      <c r="AY24" s="2"/>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="2"/>
-    </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="2"/>
-      <c r="AQ25" s="2"/>
-      <c r="AR25" s="2"/>
-      <c r="AY25" s="2"/>
-      <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="2"/>
-      <c r="BC25" s="2"/>
-      <c r="BD25" s="2"/>
-      <c r="BE25" s="2"/>
-    </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
-      <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
-      <c r="AM26" s="2"/>
-      <c r="AN26" s="2"/>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="2"/>
-      <c r="AQ26" s="2"/>
-      <c r="AY26" s="2"/>
-      <c r="AZ26" s="2"/>
-      <c r="BA26" s="2"/>
-      <c r="BB26" s="2"/>
-      <c r="BC26" s="2"/>
-      <c r="BD26" s="2"/>
-      <c r="BE26" s="2"/>
-    </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="2"/>
-      <c r="AQ27" s="2"/>
-      <c r="AY27" s="2"/>
-      <c r="AZ27" s="2"/>
-      <c r="BA27" s="2"/>
-      <c r="BB27" s="2"/>
-      <c r="BC27" s="2"/>
-      <c r="BD27" s="2"/>
-      <c r="BE27" s="2"/>
-    </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
-      <c r="AM28" s="2"/>
-      <c r="AN28" s="2"/>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="2"/>
-      <c r="AQ28" s="2"/>
-      <c r="AZ28" s="2"/>
-      <c r="BA28" s="2"/>
-      <c r="BB28" s="2"/>
-      <c r="BC28" s="2"/>
-      <c r="BD28" s="2"/>
-      <c r="BE28" s="2"/>
-    </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
-      <c r="AL29" s="2"/>
-      <c r="AM29" s="2"/>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
-      <c r="AP29" s="2"/>
-      <c r="AQ29" s="2"/>
-      <c r="AR29" s="9"/>
-      <c r="AS29" s="10"/>
-      <c r="AT29" s="10"/>
-      <c r="AU29" s="10"/>
-      <c r="AV29" s="10"/>
-      <c r="AW29" s="10"/>
-      <c r="AX29" s="10"/>
-      <c r="AY29" s="10"/>
-      <c r="AZ29" s="10"/>
-      <c r="BA29" s="10"/>
-      <c r="BB29" s="10"/>
-      <c r="BC29" s="10"/>
-      <c r="BD29" s="10"/>
-      <c r="BE29" s="10"/>
-      <c r="BF29" s="10"/>
-      <c r="BG29" s="10"/>
-      <c r="BH29" s="10"/>
-      <c r="BI29" s="10"/>
-      <c r="BJ29" s="10"/>
-      <c r="BK29" s="11"/>
-    </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="2"/>
-      <c r="AK30" s="2"/>
-      <c r="AL30" s="2"/>
-      <c r="AM30" s="2"/>
-      <c r="AN30" s="2"/>
-      <c r="AO30" s="2"/>
-      <c r="AP30" s="2"/>
-      <c r="AQ30" s="2"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="2"/>
-      <c r="AT30" s="2"/>
-      <c r="AU30" s="2"/>
-      <c r="AV30" s="2"/>
-      <c r="AW30" s="2"/>
-      <c r="AX30" s="2"/>
-      <c r="AY30" s="2"/>
-      <c r="AZ30" s="2"/>
-      <c r="BA30" s="2"/>
-      <c r="BB30" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC30" s="102"/>
-      <c r="BD30" s="102"/>
-      <c r="BE30" s="102"/>
-      <c r="BF30" s="102"/>
-      <c r="BG30" s="102"/>
-      <c r="BH30" s="102"/>
-      <c r="BI30" s="102"/>
-      <c r="BJ30" s="103"/>
-      <c r="BK30" s="3"/>
-    </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
-      <c r="AL31" s="2"/>
-      <c r="AM31" s="2"/>
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
-      <c r="AP31" s="2"/>
-      <c r="AQ31" s="2"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
-      <c r="AU31" s="2"/>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AX31" s="2"/>
-      <c r="AY31" s="2"/>
-      <c r="AZ31" s="2"/>
-      <c r="BA31" s="2"/>
-      <c r="BB31" s="104"/>
-      <c r="BC31" s="105"/>
-      <c r="BD31" s="105"/>
-      <c r="BE31" s="105"/>
-      <c r="BF31" s="105"/>
-      <c r="BG31" s="105"/>
-      <c r="BH31" s="105"/>
-      <c r="BI31" s="105"/>
-      <c r="BJ31" s="106"/>
+      <c r="BB31" s="116"/>
+      <c r="BC31" s="117"/>
+      <c r="BD31" s="117"/>
+      <c r="BE31" s="117"/>
+      <c r="BF31" s="117"/>
+      <c r="BG31" s="117"/>
+      <c r="BH31" s="117"/>
+      <c r="BI31" s="117"/>
+      <c r="BJ31" s="118"/>
       <c r="BK31" s="3"/>
     </row>
     <row r="32" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
@@ -27529,15 +28967,15 @@
       <c r="AY32" s="2"/>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
-      <c r="BB32" s="107"/>
-      <c r="BC32" s="108"/>
-      <c r="BD32" s="108"/>
-      <c r="BE32" s="108"/>
-      <c r="BF32" s="108"/>
-      <c r="BG32" s="108"/>
-      <c r="BH32" s="108"/>
-      <c r="BI32" s="108"/>
-      <c r="BJ32" s="109"/>
+      <c r="BB32" s="119"/>
+      <c r="BC32" s="120"/>
+      <c r="BD32" s="120"/>
+      <c r="BE32" s="120"/>
+      <c r="BF32" s="120"/>
+      <c r="BG32" s="120"/>
+      <c r="BH32" s="120"/>
+      <c r="BI32" s="120"/>
+      <c r="BJ32" s="121"/>
       <c r="BK32" s="3"/>
     </row>
     <row r="33" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
@@ -29330,8 +30768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA52" sqref="BA52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
@@ -29340,130 +30778,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="85" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="83" t="s">
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="83" t="s">
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="78"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="81"/>
     </row>
     <row r="2" spans="1:57" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="84" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="84" t="s">
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
-      <c r="AW2" s="79"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="79"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="80"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82"/>
+      <c r="BC2" s="83"/>
     </row>
     <row r="3" spans="1:57" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -31032,17 +32470,17 @@
       <c r="AY30" s="2"/>
       <c r="AZ30" s="2"/>
       <c r="BA30" s="2"/>
-      <c r="BB30" s="101" t="s">
+      <c r="BB30" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="BC30" s="102"/>
-      <c r="BD30" s="102"/>
-      <c r="BE30" s="102"/>
-      <c r="BF30" s="102"/>
-      <c r="BG30" s="102"/>
-      <c r="BH30" s="102"/>
-      <c r="BI30" s="102"/>
-      <c r="BJ30" s="103"/>
+      <c r="BC30" s="105"/>
+      <c r="BD30" s="105"/>
+      <c r="BE30" s="105"/>
+      <c r="BF30" s="105"/>
+      <c r="BG30" s="105"/>
+      <c r="BH30" s="105"/>
+      <c r="BI30" s="105"/>
+      <c r="BJ30" s="106"/>
       <c r="BK30" s="3"/>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.15">
@@ -31099,15 +32537,15 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
-      <c r="BB31" s="104"/>
-      <c r="BC31" s="105"/>
-      <c r="BD31" s="105"/>
-      <c r="BE31" s="105"/>
-      <c r="BF31" s="105"/>
-      <c r="BG31" s="105"/>
-      <c r="BH31" s="105"/>
-      <c r="BI31" s="105"/>
-      <c r="BJ31" s="106"/>
+      <c r="BB31" s="107"/>
+      <c r="BC31" s="108"/>
+      <c r="BD31" s="108"/>
+      <c r="BE31" s="108"/>
+      <c r="BF31" s="108"/>
+      <c r="BG31" s="108"/>
+      <c r="BH31" s="108"/>
+      <c r="BI31" s="108"/>
+      <c r="BJ31" s="109"/>
       <c r="BK31" s="3"/>
     </row>
     <row r="32" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
@@ -31164,15 +32602,15 @@
       <c r="AY32" s="2"/>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
-      <c r="BB32" s="107"/>
-      <c r="BC32" s="108"/>
-      <c r="BD32" s="108"/>
-      <c r="BE32" s="108"/>
-      <c r="BF32" s="108"/>
-      <c r="BG32" s="108"/>
-      <c r="BH32" s="108"/>
-      <c r="BI32" s="108"/>
-      <c r="BJ32" s="109"/>
+      <c r="BB32" s="110"/>
+      <c r="BC32" s="111"/>
+      <c r="BD32" s="111"/>
+      <c r="BE32" s="111"/>
+      <c r="BF32" s="111"/>
+      <c r="BG32" s="111"/>
+      <c r="BH32" s="111"/>
+      <c r="BI32" s="111"/>
+      <c r="BJ32" s="112"/>
       <c r="BK32" s="3"/>
     </row>
     <row r="33" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
@@ -32444,10 +33882,14 @@
       <c r="X64" s="49"/>
       <c r="Y64" s="49"/>
       <c r="Z64" s="50"/>
-      <c r="AK64" s="48"/>
-      <c r="AL64" s="49" t="s">
+      <c r="AK64" s="77"/>
+      <c r="AL64" s="78" t="s">
         <v>37</v>
       </c>
+      <c r="AM64" s="78"/>
+      <c r="AN64" s="78"/>
+      <c r="AO64" s="78"/>
+      <c r="AP64" s="79"/>
       <c r="AS64" s="2"/>
       <c r="AT64" s="2"/>
     </row>
@@ -32470,6 +33912,10 @@
       <c r="AE65" s="2"/>
       <c r="AK65" s="20"/>
       <c r="AL65" s="21"/>
+      <c r="AM65" s="21"/>
+      <c r="AN65" s="21"/>
+      <c r="AO65" s="21"/>
+      <c r="AP65" s="22"/>
       <c r="AS65" s="2"/>
       <c r="AT65" s="2"/>
     </row>
@@ -32498,6 +33944,10 @@
       <c r="AL66" s="24" t="s">
         <v>38</v>
       </c>
+      <c r="AM66" s="24"/>
+      <c r="AN66" s="24"/>
+      <c r="AO66" s="24"/>
+      <c r="AP66" s="25"/>
       <c r="AS66" s="2"/>
       <c r="AT66" s="2"/>
     </row>
@@ -32520,6 +33970,10 @@
       <c r="AE67" s="2"/>
       <c r="AK67" s="26"/>
       <c r="AL67" s="27"/>
+      <c r="AM67" s="27"/>
+      <c r="AN67" s="27"/>
+      <c r="AO67" s="27"/>
+      <c r="AP67" s="28"/>
       <c r="AS67" s="2"/>
       <c r="AT67" s="2"/>
     </row>
@@ -32540,8 +33994,12 @@
       <c r="Z68" s="16"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
-      <c r="AK68" s="15"/>
-      <c r="AL68" s="2"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="13"/>
+      <c r="AM68" s="13"/>
+      <c r="AN68" s="13"/>
+      <c r="AO68" s="13"/>
+      <c r="AP68" s="14"/>
       <c r="AS68" s="2"/>
       <c r="AT68" s="2"/>
     </row>

--- a/設計書類_レビュー前/画面遷移図 レビュー前.xlsx
+++ b/設計書類_レビュー前/画面遷移図 レビュー前.xlsx
@@ -491,6 +491,7 @@
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -498,6 +499,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1103,30 +1105,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1174,6 +1153,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1229,7 +1232,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -4365,15 +4367,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>11433</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>110492</xdr:rowOff>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>41917</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>22858</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4381,9 +4383,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3851913" y="3966212"/>
-          <a:ext cx="396244" cy="967739"/>
+        <a:xfrm rot="5400000">
+          <a:off x="3554729" y="3775714"/>
+          <a:ext cx="998222" cy="350517"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
@@ -5497,16 +5499,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5515,7 +5517,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="3246120" y="3375660"/>
+          <a:off x="3375660" y="3482340"/>
           <a:ext cx="426720" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6466,16 +6468,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>113030</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>62230</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6483,9 +6485,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="6259830" y="5132070"/>
-          <a:ext cx="1046480" cy="901700"/>
+        <a:xfrm rot="10800000">
+          <a:off x="1576070" y="6066790"/>
+          <a:ext cx="1046480" cy="577850"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -6516,7 +6518,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>ほとんどのページに管理者ボタンがあり、繋がる。</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6525,15 +6530,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6541,9 +6546,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="1219200" y="2758440"/>
-          <a:ext cx="15240" cy="1196340"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1181100" y="2750820"/>
+          <a:ext cx="7620" cy="1211580"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6632,81 +6637,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="571500" y="2956560"/>
-          <a:ext cx="792480" cy="160020"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>注文へ戻るボタン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6715,8 +6655,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="213360" y="4061460"/>
-          <a:ext cx="670560" cy="182880"/>
+          <a:off x="449580" y="655320"/>
+          <a:ext cx="670560" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
@@ -6748,6 +6688,14 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>始動画面</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>お客様にはみれない</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6756,15 +6704,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6773,7 +6721,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="891540" y="3329940"/>
+          <a:off x="906780" y="3611880"/>
           <a:ext cx="449580" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6820,26 +6768,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+        <xdr:cNvPr id="89" name="正方形/長方形 88"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="960120" y="5791200"/>
-          <a:ext cx="510540" cy="137160"/>
+          <a:off x="1325880" y="2903220"/>
+          <a:ext cx="586740" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6876,7 +6824,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>注文へ戻る</a:t>
+            <a:t>管理者ボタン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6885,26 +6833,80 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1981200" y="3467100"/>
+          <a:ext cx="495300" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="正方形/長方形 88"/>
+        <xdr:cNvPr id="78" name="正方形/長方形 77"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1470660" y="3116580"/>
-          <a:ext cx="792480" cy="160020"/>
+          <a:off x="1813560" y="3512820"/>
+          <a:ext cx="586740" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20387,130 +20389,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="88" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="86" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="86" t="s">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103"/>
+      <c r="AP1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="81"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="100"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="87" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85"/>
-      <c r="AP2" s="87" t="s">
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="82"/>
-      <c r="AV2" s="82"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="82"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="82"/>
-      <c r="BA2" s="82"/>
-      <c r="BB2" s="82"/>
-      <c r="BC2" s="83"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="101"/>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="101"/>
+      <c r="BC2" s="102"/>
     </row>
     <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -23421,17 +23423,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -23447,8 +23449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
@@ -23457,130 +23459,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="88" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="86" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="86" t="s">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103"/>
+      <c r="AP1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="81"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="100"/>
     </row>
     <row r="2" spans="1:73" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="87" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85"/>
-      <c r="AP2" s="87" t="s">
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="82"/>
-      <c r="AV2" s="82"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="82"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="82"/>
-      <c r="BA2" s="82"/>
-      <c r="BB2" s="82"/>
-      <c r="BC2" s="83"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="101"/>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="101"/>
+      <c r="BC2" s="102"/>
     </row>
     <row r="3" spans="1:73" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -25599,17 +25601,17 @@
       <c r="AY30" s="2"/>
       <c r="AZ30" s="2"/>
       <c r="BA30" s="2"/>
-      <c r="BB30" s="104" t="s">
+      <c r="BB30" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="BC30" s="105"/>
-      <c r="BD30" s="105"/>
-      <c r="BE30" s="105"/>
-      <c r="BF30" s="105"/>
-      <c r="BG30" s="105"/>
-      <c r="BH30" s="105"/>
-      <c r="BI30" s="105"/>
-      <c r="BJ30" s="106"/>
+      <c r="BC30" s="106"/>
+      <c r="BD30" s="106"/>
+      <c r="BE30" s="106"/>
+      <c r="BF30" s="106"/>
+      <c r="BG30" s="106"/>
+      <c r="BH30" s="106"/>
+      <c r="BI30" s="106"/>
+      <c r="BJ30" s="107"/>
       <c r="BK30" s="3"/>
       <c r="BL30" s="2"/>
       <c r="BM30" s="2"/>
@@ -25625,11 +25627,17 @@
     <row r="31" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="11"/>
       <c r="N31" s="9"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
@@ -25670,15 +25678,15 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
-      <c r="BB31" s="107"/>
-      <c r="BC31" s="108"/>
-      <c r="BD31" s="108"/>
-      <c r="BE31" s="108"/>
-      <c r="BF31" s="108"/>
-      <c r="BG31" s="108"/>
-      <c r="BH31" s="108"/>
-      <c r="BI31" s="108"/>
-      <c r="BJ31" s="109"/>
+      <c r="BB31" s="108"/>
+      <c r="BC31" s="109"/>
+      <c r="BD31" s="109"/>
+      <c r="BE31" s="109"/>
+      <c r="BF31" s="109"/>
+      <c r="BG31" s="109"/>
+      <c r="BH31" s="109"/>
+      <c r="BI31" s="109"/>
+      <c r="BJ31" s="110"/>
       <c r="BK31" s="3"/>
       <c r="BL31" s="2"/>
       <c r="BM31" s="2"/>
@@ -25694,11 +25702,17 @@
     <row r="32" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="M32" s="3"/>
       <c r="N32" s="1"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -25739,15 +25753,15 @@
       <c r="AY32" s="2"/>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
-      <c r="BB32" s="110"/>
-      <c r="BC32" s="111"/>
-      <c r="BD32" s="111"/>
-      <c r="BE32" s="111"/>
-      <c r="BF32" s="111"/>
-      <c r="BG32" s="111"/>
-      <c r="BH32" s="111"/>
-      <c r="BI32" s="111"/>
-      <c r="BJ32" s="112"/>
+      <c r="BB32" s="111"/>
+      <c r="BC32" s="112"/>
+      <c r="BD32" s="112"/>
+      <c r="BE32" s="112"/>
+      <c r="BF32" s="112"/>
+      <c r="BG32" s="112"/>
+      <c r="BH32" s="112"/>
+      <c r="BI32" s="112"/>
+      <c r="BJ32" s="113"/>
       <c r="BK32" s="3"/>
       <c r="BL32" s="2"/>
       <c r="BM32" s="2"/>
@@ -25763,17 +25777,19 @@
     <row r="33" spans="1:73" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="48"/>
-      <c r="G33" s="122"/>
+      <c r="G33" s="80"/>
       <c r="H33" s="49" t="s">
         <v>53</v>
       </c>
       <c r="I33" s="49"/>
       <c r="J33" s="49"/>
       <c r="K33" s="50"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="3"/>
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
       <c r="P33" s="48"/>
@@ -25844,7 +25860,7 @@
     <row r="34" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="29"/>
@@ -25853,6 +25869,8 @@
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
       <c r="K34" s="31"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="3"/>
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
       <c r="P34" s="29"/>
@@ -25917,7 +25935,7 @@
     <row r="35" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="32"/>
@@ -25928,6 +25946,8 @@
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
       <c r="K35" s="34"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="3"/>
       <c r="N35" s="1"/>
       <c r="O35" s="2"/>
       <c r="P35" s="32"/>
@@ -25998,7 +26018,7 @@
     <row r="36" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="35"/>
@@ -26007,6 +26027,8 @@
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
       <c r="K36" s="37"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="3"/>
       <c r="N36" s="1"/>
       <c r="O36" s="2"/>
       <c r="P36" s="35"/>
@@ -26071,7 +26093,7 @@
     <row r="37" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="15"/>
@@ -26080,6 +26102,8 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="16"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="3"/>
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
       <c r="P37" s="12"/>
@@ -26144,7 +26168,7 @@
     <row r="38" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="15"/>
@@ -26153,6 +26177,8 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="16"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="3"/>
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="15"/>
@@ -26217,7 +26243,7 @@
     <row r="39" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="15"/>
@@ -26226,6 +26252,8 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="16"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="3"/>
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
       <c r="P39" s="15"/>
@@ -26292,7 +26320,7 @@
     <row r="40" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="15"/>
@@ -26301,6 +26329,8 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="16"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="3"/>
       <c r="N40" s="1"/>
       <c r="O40" s="2"/>
       <c r="P40" s="15"/>
@@ -26365,7 +26395,7 @@
     <row r="41" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="15"/>
@@ -26374,6 +26404,8 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="16"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="3"/>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="15"/>
@@ -26438,7 +26470,7 @@
     <row r="42" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="15"/>
@@ -26447,6 +26479,8 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="16"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="3"/>
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="15"/>
@@ -26511,7 +26545,7 @@
     <row r="43" spans="1:73" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="15"/>
@@ -26520,6 +26554,8 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="16"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="3"/>
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="15"/>
@@ -26584,7 +26620,7 @@
     <row r="44" spans="1:73" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="17"/>
@@ -26593,6 +26629,8 @@
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
       <c r="K44" s="19"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="3"/>
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="17"/>
@@ -26657,11 +26695,17 @@
     <row r="45" spans="1:73" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="M45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="7"/>
       <c r="N45" s="5"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -27143,130 +27187,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="88" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="86" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="86" t="s">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103"/>
+      <c r="AP1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="81"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="100"/>
     </row>
     <row r="2" spans="1:57" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="87" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85"/>
-      <c r="AP2" s="87" t="s">
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="82"/>
-      <c r="AV2" s="82"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="82"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="82"/>
-      <c r="BA2" s="82"/>
-      <c r="BB2" s="82"/>
-      <c r="BC2" s="83"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="101"/>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="101"/>
+      <c r="BC2" s="102"/>
     </row>
     <row r="3" spans="1:57" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -28835,17 +28879,17 @@
       <c r="AY30" s="2"/>
       <c r="AZ30" s="2"/>
       <c r="BA30" s="2"/>
-      <c r="BB30" s="113" t="s">
+      <c r="BB30" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="BC30" s="114"/>
-      <c r="BD30" s="114"/>
-      <c r="BE30" s="114"/>
-      <c r="BF30" s="114"/>
-      <c r="BG30" s="114"/>
-      <c r="BH30" s="114"/>
-      <c r="BI30" s="114"/>
-      <c r="BJ30" s="115"/>
+      <c r="BC30" s="115"/>
+      <c r="BD30" s="115"/>
+      <c r="BE30" s="115"/>
+      <c r="BF30" s="115"/>
+      <c r="BG30" s="115"/>
+      <c r="BH30" s="115"/>
+      <c r="BI30" s="115"/>
+      <c r="BJ30" s="116"/>
       <c r="BK30" s="3"/>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.15">
@@ -28902,15 +28946,15 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
-      <c r="BB31" s="116"/>
-      <c r="BC31" s="117"/>
-      <c r="BD31" s="117"/>
-      <c r="BE31" s="117"/>
-      <c r="BF31" s="117"/>
-      <c r="BG31" s="117"/>
-      <c r="BH31" s="117"/>
-      <c r="BI31" s="117"/>
-      <c r="BJ31" s="118"/>
+      <c r="BB31" s="117"/>
+      <c r="BC31" s="118"/>
+      <c r="BD31" s="118"/>
+      <c r="BE31" s="118"/>
+      <c r="BF31" s="118"/>
+      <c r="BG31" s="118"/>
+      <c r="BH31" s="118"/>
+      <c r="BI31" s="118"/>
+      <c r="BJ31" s="119"/>
       <c r="BK31" s="3"/>
     </row>
     <row r="32" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
@@ -28967,15 +29011,15 @@
       <c r="AY32" s="2"/>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
-      <c r="BB32" s="119"/>
-      <c r="BC32" s="120"/>
-      <c r="BD32" s="120"/>
-      <c r="BE32" s="120"/>
-      <c r="BF32" s="120"/>
-      <c r="BG32" s="120"/>
-      <c r="BH32" s="120"/>
-      <c r="BI32" s="120"/>
-      <c r="BJ32" s="121"/>
+      <c r="BB32" s="120"/>
+      <c r="BC32" s="121"/>
+      <c r="BD32" s="121"/>
+      <c r="BE32" s="121"/>
+      <c r="BF32" s="121"/>
+      <c r="BG32" s="121"/>
+      <c r="BH32" s="121"/>
+      <c r="BI32" s="121"/>
+      <c r="BJ32" s="122"/>
       <c r="BK32" s="3"/>
     </row>
     <row r="33" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
@@ -30778,130 +30822,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="88" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="86" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="86" t="s">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103"/>
+      <c r="AP1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="81"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="100"/>
     </row>
     <row r="2" spans="1:57" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="87" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85"/>
-      <c r="AP2" s="87" t="s">
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="82"/>
-      <c r="AV2" s="82"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="82"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="82"/>
-      <c r="BA2" s="82"/>
-      <c r="BB2" s="82"/>
-      <c r="BC2" s="83"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="101"/>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="101"/>
+      <c r="BC2" s="102"/>
     </row>
     <row r="3" spans="1:57" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -32470,17 +32514,17 @@
       <c r="AY30" s="2"/>
       <c r="AZ30" s="2"/>
       <c r="BA30" s="2"/>
-      <c r="BB30" s="104" t="s">
+      <c r="BB30" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="BC30" s="105"/>
-      <c r="BD30" s="105"/>
-      <c r="BE30" s="105"/>
-      <c r="BF30" s="105"/>
-      <c r="BG30" s="105"/>
-      <c r="BH30" s="105"/>
-      <c r="BI30" s="105"/>
-      <c r="BJ30" s="106"/>
+      <c r="BC30" s="106"/>
+      <c r="BD30" s="106"/>
+      <c r="BE30" s="106"/>
+      <c r="BF30" s="106"/>
+      <c r="BG30" s="106"/>
+      <c r="BH30" s="106"/>
+      <c r="BI30" s="106"/>
+      <c r="BJ30" s="107"/>
       <c r="BK30" s="3"/>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.15">
@@ -32537,15 +32581,15 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
-      <c r="BB31" s="107"/>
-      <c r="BC31" s="108"/>
-      <c r="BD31" s="108"/>
-      <c r="BE31" s="108"/>
-      <c r="BF31" s="108"/>
-      <c r="BG31" s="108"/>
-      <c r="BH31" s="108"/>
-      <c r="BI31" s="108"/>
-      <c r="BJ31" s="109"/>
+      <c r="BB31" s="108"/>
+      <c r="BC31" s="109"/>
+      <c r="BD31" s="109"/>
+      <c r="BE31" s="109"/>
+      <c r="BF31" s="109"/>
+      <c r="BG31" s="109"/>
+      <c r="BH31" s="109"/>
+      <c r="BI31" s="109"/>
+      <c r="BJ31" s="110"/>
       <c r="BK31" s="3"/>
     </row>
     <row r="32" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
@@ -32602,15 +32646,15 @@
       <c r="AY32" s="2"/>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
-      <c r="BB32" s="110"/>
-      <c r="BC32" s="111"/>
-      <c r="BD32" s="111"/>
-      <c r="BE32" s="111"/>
-      <c r="BF32" s="111"/>
-      <c r="BG32" s="111"/>
-      <c r="BH32" s="111"/>
-      <c r="BI32" s="111"/>
-      <c r="BJ32" s="112"/>
+      <c r="BB32" s="111"/>
+      <c r="BC32" s="112"/>
+      <c r="BD32" s="112"/>
+      <c r="BE32" s="112"/>
+      <c r="BF32" s="112"/>
+      <c r="BG32" s="112"/>
+      <c r="BH32" s="112"/>
+      <c r="BI32" s="112"/>
+      <c r="BJ32" s="113"/>
       <c r="BK32" s="3"/>
     </row>
     <row r="33" spans="1:63" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">

--- a/設計書類_レビュー前/画面遷移図 レビュー前.xlsx
+++ b/設計書類_レビュー前/画面遷移図 レビュー前.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6636" yWindow="780" windowWidth="18876" windowHeight="15588" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="6636" yWindow="780" windowWidth="18876" windowHeight="15588" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="18" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -428,6 +428,17 @@
   </si>
   <si>
     <t>rohuin.php</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>注文ありがとう</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ございました。</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1106,6 +1117,30 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1153,30 +1188,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3770,15 +3781,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>58420</xdr:rowOff>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>173990</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>71120</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>90170</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3787,7 +3798,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7539990" y="2565400"/>
+          <a:off x="7639050" y="1993900"/>
           <a:ext cx="497840" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4037,8 +4048,8 @@
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4047,8 +4058,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="7621905" y="962025"/>
-          <a:ext cx="855980" cy="1075690"/>
+          <a:off x="7732395" y="851535"/>
+          <a:ext cx="635000" cy="1075690"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
@@ -4869,14 +4880,14 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4885,7 +4896,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="7322820" y="2499360"/>
+          <a:off x="7322820" y="2141220"/>
           <a:ext cx="1844040" cy="15240"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5831,215 +5842,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8823960" y="2499360"/>
-          <a:ext cx="342900" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>戻る</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線矢印コネクタ 50"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="7284720" y="2141220"/>
-          <a:ext cx="1821180" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>148590</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="正方形/長方形 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8610600" y="1859280"/>
-          <a:ext cx="499110" cy="121920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>戻るボタン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>143256</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>24384</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形吹き出し 1"/>
+        <xdr:cNvPr id="48" name="四角形吹き出し 47"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="10572750" y="1146810"/>
-          <a:ext cx="1126236" cy="1136904"/>
+          <a:off x="9970770" y="3661410"/>
+          <a:ext cx="868680" cy="1684020"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
@@ -6069,7 +5891,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>モーダル画面で確定したものを表示するここでも、消去は可能。</a:t>
+            <a:t>商品ボタンを押すと表示される、数量の選択ができる。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
@@ -6077,82 +5899,17 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>送信ボタンを押すと、注文が確定する。自動で、カテゴリー画面へ戻る</a:t>
+            <a:t>戻るを押すと、キャンセルされる。</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="四角形吹き出し 47"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="9406890" y="4362450"/>
-          <a:ext cx="1485900" cy="1188720"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>確定ボタンを押すと、注文確定画面の方にデータが送られる。</a:t>
+            <a:t>確定ボタンで、メニュー画面にデータが送られる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>　戻るを押すと、キャンセルされ戻る。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>注文確定画面を開くとモーダル画面で送った画面が表示されている</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6944,6 +6701,149 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
             <a:t>管理者ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>15239</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>53339</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>73984</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="四角形吹き出し 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="12389601" y="2186128"/>
+          <a:ext cx="997630" cy="1702663"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6329"/>
+            <a:gd name="adj2" fmla="val 284672"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>モーダル画面での確定後。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>メニュー画面の下部に、今までなにを注文したかの履歴が表示されるようになる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>そこの欄では注文の編集が可能だ。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8313420" y="3489960"/>
+          <a:ext cx="499110" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>確定ボタン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20389,130 +20289,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="81" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="97" t="s">
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103"/>
-      <c r="AP1" s="97" t="s">
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-      <c r="AW1" s="99"/>
-      <c r="AX1" s="99"/>
-      <c r="AY1" s="99"/>
-      <c r="AZ1" s="99"/>
-      <c r="BA1" s="99"/>
-      <c r="BB1" s="99"/>
-      <c r="BC1" s="100"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="82"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="98" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="98" t="s">
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="101"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="101"/>
-      <c r="BA2" s="101"/>
-      <c r="BB2" s="101"/>
-      <c r="BC2" s="102"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="84"/>
     </row>
     <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -23423,17 +23323,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -23449,8 +23349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC27" sqref="BC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
@@ -23459,130 +23359,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="81" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="97" t="s">
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103"/>
-      <c r="AP1" s="97" t="s">
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-      <c r="AW1" s="99"/>
-      <c r="AX1" s="99"/>
-      <c r="AY1" s="99"/>
-      <c r="AZ1" s="99"/>
-      <c r="BA1" s="99"/>
-      <c r="BB1" s="99"/>
-      <c r="BC1" s="100"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="82"/>
     </row>
     <row r="2" spans="1:73" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="98" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="98" t="s">
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="101"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="101"/>
-      <c r="BA2" s="101"/>
-      <c r="BB2" s="101"/>
-      <c r="BC2" s="102"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="84"/>
     </row>
     <row r="3" spans="1:73" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -24559,7 +24459,7 @@
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
       <c r="AY16" s="15" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
@@ -24636,7 +24536,7 @@
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
       <c r="AY17" s="15" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
@@ -24712,9 +24612,7 @@
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
-      <c r="AY18" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AY18" s="15"/>
       <c r="AZ18" s="2"/>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
@@ -24789,9 +24687,7 @@
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
-      <c r="AY19" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="AY19" s="15"/>
       <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
       <c r="BB19" s="2"/>
@@ -27187,130 +27083,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="81" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="97" t="s">
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103"/>
-      <c r="AP1" s="97" t="s">
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-      <c r="AW1" s="99"/>
-      <c r="AX1" s="99"/>
-      <c r="AY1" s="99"/>
-      <c r="AZ1" s="99"/>
-      <c r="BA1" s="99"/>
-      <c r="BB1" s="99"/>
-      <c r="BC1" s="100"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="82"/>
     </row>
     <row r="2" spans="1:57" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="98" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="98" t="s">
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="101"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="101"/>
-      <c r="BA2" s="101"/>
-      <c r="BB2" s="101"/>
-      <c r="BC2" s="102"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="84"/>
     </row>
     <row r="3" spans="1:57" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -30822,130 +30718,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="81" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="97" t="s">
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103"/>
-      <c r="AP1" s="97" t="s">
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-      <c r="AW1" s="99"/>
-      <c r="AX1" s="99"/>
-      <c r="AY1" s="99"/>
-      <c r="AZ1" s="99"/>
-      <c r="BA1" s="99"/>
-      <c r="BB1" s="99"/>
-      <c r="BC1" s="100"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="82"/>
     </row>
     <row r="2" spans="1:57" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="98" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="98" t="s">
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="101"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="101"/>
-      <c r="BA2" s="101"/>
-      <c r="BB2" s="101"/>
-      <c r="BC2" s="102"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="84"/>
     </row>
     <row r="3" spans="1:57" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>

--- a/設計書類_レビュー前/画面遷移図 レビュー前.xlsx
+++ b/設計書類_レビュー前/画面遷移図 レビュー前.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\システム開発演習\画面遷移図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\設計書類_レビュー前\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1117,30 +1117,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1188,6 +1164,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -20289,130 +20289,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="89" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="87" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="87" t="s">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103"/>
+      <c r="AP1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="87"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="82"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="100"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="88" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="88" t="s">
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
-      <c r="AW2" s="83"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="83"/>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="83"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="84"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="101"/>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="101"/>
+      <c r="BC2" s="102"/>
     </row>
     <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -23323,17 +23323,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -23359,130 +23359,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="89" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="87" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="87" t="s">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103"/>
+      <c r="AP1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="87"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="82"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="100"/>
     </row>
     <row r="2" spans="1:73" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="88" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="88" t="s">
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
-      <c r="AW2" s="83"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="83"/>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="83"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="84"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="101"/>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="101"/>
+      <c r="BC2" s="102"/>
     </row>
     <row r="3" spans="1:73" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -27060,8 +27060,8 @@
     <mergeCell ref="AP1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
-  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;8- &amp;P -&amp;R&amp;"明朝,標準"&amp;8Copyright © 2007 sample Corporation. All Rights Reserved.</oddFooter>
   </headerFooter>
@@ -27083,130 +27083,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="89" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="87" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="87" t="s">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103"/>
+      <c r="AP1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="87"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="82"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="100"/>
     </row>
     <row r="2" spans="1:57" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="88" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="88" t="s">
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
-      <c r="AW2" s="83"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="83"/>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="83"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="84"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="101"/>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="101"/>
+      <c r="BC2" s="102"/>
     </row>
     <row r="3" spans="1:57" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -30718,130 +30718,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="89" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="87" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="87" t="s">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103"/>
+      <c r="AP1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="87"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="82"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="100"/>
     </row>
     <row r="2" spans="1:57" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="88" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="88" t="s">
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
-      <c r="AW2" s="83"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="83"/>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="83"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="84"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="101"/>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="101"/>
+      <c r="BC2" s="102"/>
     </row>
     <row r="3" spans="1:57" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
